--- a/Data/Veterans/Analysis/Output_2020A2.xlsx
+++ b/Data/Veterans/Analysis/Output_2020A2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Northern Coin ELToDv2.3 2017-0628\Reporting\ELTOD Output-CSV via Rscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Projects\Veterans ELToDv2.3 2017\Reporting\ELTOD Output-CSV via Rscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="12435" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView windowHeight="12432" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Output" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
   <si>
     <t>SEGMENT: 1</t>
   </si>
@@ -180,19 +180,16 @@
     <t>SEGMENT: 2</t>
   </si>
   <si>
-    <t>NC - Kissimee S - Osceola Pwy</t>
+    <t>Sugarwood Mainline</t>
   </si>
   <si>
-    <t>NC - Osceola Pwy - Orlando S</t>
-  </si>
-  <si>
-    <t>NC -  Orlando S - I-4</t>
+    <t>Anderson Mainline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1152,7 +1149,7 @@
     <cellStyle builtinId="4" name="Currency" xfId="2"/>
     <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="18"/>
     <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="8"/>
-    <cellStyle name="header" xfId="49" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="header" xfId="49"/>
     <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="4"/>
     <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="5"/>
     <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="6"/>
@@ -1167,11 +1164,11 @@
     <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="3"/>
     <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="19"/>
     <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="16"/>
-    <cellStyle name="XLConnect.Boolean" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="XLConnect.DateTime" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="XLConnect.Header" xfId="44" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="XLConnect.Numeric" xfId="46" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="XLConnect.String" xfId="45" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="XLConnect.Boolean" xfId="47"/>
+    <cellStyle name="XLConnect.DateTime" xfId="48"/>
+    <cellStyle name="XLConnect.Header" xfId="44"/>
+    <cellStyle name="XLConnect.Numeric" xfId="46"/>
+    <cellStyle name="XLConnect.String" xfId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -1203,13 +1200,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1497,23 +1488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="20.140625" collapsed="true"/>
-    <col min="2" max="5" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.28515625" collapsed="true"/>
-    <col min="7" max="16" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="17" max="18" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="20.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="3" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="3" width="12.33203125" collapsed="true"/>
+    <col min="7" max="16" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="17" max="18" customWidth="true" style="4" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1513,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row ht="15.75" r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="3" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1567,7 @@
       </c>
       <c r="R3" s="109"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1632,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
@@ -1744,7 +1735,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1791,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1847,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1903,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
@@ -1968,7 +1959,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
@@ -2024,7 +2015,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2071,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2127,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>23</v>
       </c>
@@ -2192,7 +2183,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +2239,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>25</v>
       </c>
@@ -2304,7 +2295,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>26</v>
       </c>
@@ -2360,7 +2351,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>27</v>
       </c>
@@ -2416,7 +2407,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +2463,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
@@ -2528,7 +2519,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
@@ -2584,7 +2575,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>31</v>
       </c>
@@ -2640,7 +2631,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>32</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>33</v>
       </c>
@@ -2752,7 +2743,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>34</v>
       </c>
@@ -2808,7 +2799,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>35</v>
       </c>
@@ -2864,7 +2855,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>36</v>
       </c>
@@ -2920,7 +2911,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>37</v>
       </c>
@@ -2976,7 +2967,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +3023,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>39</v>
       </c>
@@ -3069,7 +3060,7 @@
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>40</v>
       </c>
@@ -3078,7 +3069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
@@ -3087,7 +3078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
@@ -3096,7 +3087,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3106,7 +3097,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
@@ -3118,7 +3109,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -3130,7 +3121,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -3142,7 +3133,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
@@ -3154,7 +3145,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -3166,7 +3157,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -3178,7 +3169,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -3190,7 +3181,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>50</v>
       </c>
@@ -3202,7 +3193,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -3214,7 +3205,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3223,7 +3214,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row ht="15.75" r="48" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="48" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3268,7 @@
       </c>
       <c r="R48" s="109"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>7</v>
       </c>
@@ -3333,7 +3324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>11</v>
       </c>
@@ -3389,7 +3380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>15</v>
       </c>
@@ -3445,7 +3436,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>16</v>
       </c>
@@ -3501,7 +3492,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>17</v>
       </c>
@@ -3557,7 +3548,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>18</v>
       </c>
@@ -3613,7 +3604,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>19</v>
       </c>
@@ -3669,7 +3660,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>20</v>
       </c>
@@ -3725,7 +3716,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>21</v>
       </c>
@@ -3781,7 +3772,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
         <v>22</v>
       </c>
@@ -3837,7 +3828,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="44" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3884,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="44" t="s">
         <v>24</v>
       </c>
@@ -3949,7 +3940,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>25</v>
       </c>
@@ -4005,7 +3996,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>26</v>
       </c>
@@ -4061,7 +4052,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>27</v>
       </c>
@@ -4117,7 +4108,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>28</v>
       </c>
@@ -4173,7 +4164,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>29</v>
       </c>
@@ -4229,7 +4220,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4276,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +4332,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
         <v>32</v>
       </c>
@@ -4397,7 +4388,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
         <v>33</v>
       </c>
@@ -4453,7 +4444,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="29" t="s">
         <v>34</v>
       </c>
@@ -4509,7 +4500,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="29" t="s">
         <v>35</v>
       </c>
@@ -4565,7 +4556,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
         <v>36</v>
       </c>
@@ -4621,7 +4612,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="29" t="s">
         <v>37</v>
       </c>
@@ -4677,7 +4668,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
         <v>38</v>
       </c>
@@ -4733,7 +4724,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="29" t="s">
         <v>39</v>
       </c>
@@ -4770,7 +4761,7 @@
       <c r="K75" s="71"/>
       <c r="L75" s="71"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>40</v>
       </c>
@@ -4779,7 +4770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>41</v>
       </c>
@@ -4788,7 +4779,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
@@ -4797,7 +4788,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4807,7 +4798,7 @@
       <c r="Q80"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>43</v>
       </c>
@@ -4819,7 +4810,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>44</v>
       </c>
@@ -4831,7 +4822,7 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>45</v>
       </c>
@@ -4843,7 +4834,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>46</v>
       </c>
@@ -4855,7 +4846,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>47</v>
       </c>
@@ -4867,7 +4858,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>48</v>
       </c>
@@ -4879,7 +4870,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>49</v>
       </c>
@@ -4891,7 +4882,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>50</v>
       </c>
@@ -4903,7 +4894,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>51</v>
       </c>
@@ -4915,1588 +4906,575 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
     </row>
-    <row ht="15.75" r="93" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="D93" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="F93" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" s="107" t="s">
-        <v>4</v>
-      </c>
-      <c r="J93" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="K93" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="L93" s="106" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="107" t="s">
-        <v>5</v>
-      </c>
-      <c r="N93" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="O93" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="P93" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q93" s="108" t="s">
-        <v>6</v>
-      </c>
+    <row ht="15" r="93" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="103"/>
+      <c r="F93" s="104"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="107"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="106"/>
+      <c r="M93" s="107"/>
+      <c r="N93" s="105"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="106"/>
+      <c r="Q93" s="108"/>
       <c r="R93" s="109"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="L94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M94" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P94" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q94" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="R94" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J95" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K95" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L95" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M95" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O95" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P95" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q95" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="R95" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="30">
-        <v>1</v>
-      </c>
-      <c r="C96" s="31">
-        <v>1</v>
-      </c>
-      <c r="D96" s="32">
-        <v>1</v>
-      </c>
-      <c r="E96" s="32">
-        <v>1</v>
-      </c>
-      <c r="F96" s="33">
-        <v>1</v>
-      </c>
-      <c r="G96" s="84">
-        <v>1</v>
-      </c>
-      <c r="H96" s="85">
-        <v>1</v>
-      </c>
-      <c r="I96" s="90">
-        <v>1</v>
-      </c>
-      <c r="J96" s="91">
-        <v>1</v>
-      </c>
-      <c r="K96" s="92">
-        <v>1</v>
-      </c>
-      <c r="L96" s="93">
-        <v>1</v>
-      </c>
-      <c r="M96" s="94">
-        <v>1</v>
-      </c>
-      <c r="N96" s="95">
-        <v>1</v>
-      </c>
-      <c r="O96" s="78">
-        <v>1</v>
-      </c>
-      <c r="P96" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q96" s="42">
-        <v>1</v>
-      </c>
-      <c r="R96" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="30">
-        <v>1</v>
-      </c>
-      <c r="C97" s="31">
-        <v>1</v>
-      </c>
-      <c r="D97" s="32">
-        <v>1</v>
-      </c>
-      <c r="E97" s="32">
-        <v>1</v>
-      </c>
-      <c r="F97" s="33">
-        <v>1</v>
-      </c>
-      <c r="G97" s="84">
-        <v>1</v>
-      </c>
-      <c r="H97" s="85">
-        <v>1</v>
-      </c>
-      <c r="I97" s="94">
-        <v>1</v>
-      </c>
-      <c r="J97" s="95">
-        <v>1</v>
-      </c>
-      <c r="K97" s="78">
-        <v>1</v>
-      </c>
-      <c r="L97" s="79">
-        <v>1</v>
-      </c>
-      <c r="M97" s="94">
-        <v>1</v>
-      </c>
-      <c r="N97" s="95">
-        <v>1</v>
-      </c>
-      <c r="O97" s="78">
-        <v>1</v>
-      </c>
-      <c r="P97" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="42">
-        <v>1</v>
-      </c>
-      <c r="R97" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" s="30">
-        <v>1</v>
-      </c>
-      <c r="C98" s="31">
-        <v>1</v>
-      </c>
-      <c r="D98" s="32">
-        <v>1</v>
-      </c>
-      <c r="E98" s="32">
-        <v>1</v>
-      </c>
-      <c r="F98" s="33">
-        <v>1</v>
-      </c>
-      <c r="G98" s="84">
-        <v>1</v>
-      </c>
-      <c r="H98" s="85">
-        <v>1</v>
-      </c>
-      <c r="I98" s="94">
-        <v>1</v>
-      </c>
-      <c r="J98" s="95">
-        <v>1</v>
-      </c>
-      <c r="K98" s="78">
-        <v>1</v>
-      </c>
-      <c r="L98" s="79">
-        <v>1</v>
-      </c>
-      <c r="M98" s="94">
-        <v>1</v>
-      </c>
-      <c r="N98" s="95">
-        <v>1</v>
-      </c>
-      <c r="O98" s="78">
-        <v>1</v>
-      </c>
-      <c r="P98" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="42">
-        <v>1</v>
-      </c>
-      <c r="R98" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B99" s="30">
-        <v>1</v>
-      </c>
-      <c r="C99" s="31">
-        <v>1</v>
-      </c>
-      <c r="D99" s="32">
-        <v>1</v>
-      </c>
-      <c r="E99" s="32">
-        <v>1</v>
-      </c>
-      <c r="F99" s="33">
-        <v>1</v>
-      </c>
-      <c r="G99" s="84">
-        <v>1</v>
-      </c>
-      <c r="H99" s="85">
-        <v>1</v>
-      </c>
-      <c r="I99" s="94">
-        <v>1</v>
-      </c>
-      <c r="J99" s="95">
-        <v>1</v>
-      </c>
-      <c r="K99" s="78">
-        <v>1</v>
-      </c>
-      <c r="L99" s="79">
-        <v>1</v>
-      </c>
-      <c r="M99" s="94">
-        <v>1</v>
-      </c>
-      <c r="N99" s="95">
-        <v>1</v>
-      </c>
-      <c r="O99" s="78">
-        <v>1</v>
-      </c>
-      <c r="P99" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="42">
-        <v>1</v>
-      </c>
-      <c r="R99" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B100" s="30">
-        <v>1</v>
-      </c>
-      <c r="C100" s="31">
-        <v>1</v>
-      </c>
-      <c r="D100" s="32">
-        <v>1</v>
-      </c>
-      <c r="E100" s="32">
-        <v>1</v>
-      </c>
-      <c r="F100" s="33">
-        <v>1</v>
-      </c>
-      <c r="G100" s="84">
-        <v>1</v>
-      </c>
-      <c r="H100" s="85">
-        <v>1</v>
-      </c>
-      <c r="I100" s="94">
-        <v>1</v>
-      </c>
-      <c r="J100" s="95">
-        <v>1</v>
-      </c>
-      <c r="K100" s="78">
-        <v>1</v>
-      </c>
-      <c r="L100" s="79">
-        <v>1</v>
-      </c>
-      <c r="M100" s="94">
-        <v>1</v>
-      </c>
-      <c r="N100" s="95">
-        <v>1</v>
-      </c>
-      <c r="O100" s="78">
-        <v>1</v>
-      </c>
-      <c r="P100" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="42">
-        <v>1</v>
-      </c>
-      <c r="R100" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B101" s="30">
-        <v>1</v>
-      </c>
-      <c r="C101" s="31">
-        <v>1</v>
-      </c>
-      <c r="D101" s="32">
-        <v>1</v>
-      </c>
-      <c r="E101" s="32">
-        <v>1</v>
-      </c>
-      <c r="F101" s="33">
-        <v>1</v>
-      </c>
-      <c r="G101" s="84">
-        <v>1</v>
-      </c>
-      <c r="H101" s="85">
-        <v>1</v>
-      </c>
-      <c r="I101" s="94">
-        <v>1</v>
-      </c>
-      <c r="J101" s="95">
-        <v>1</v>
-      </c>
-      <c r="K101" s="78">
-        <v>1</v>
-      </c>
-      <c r="L101" s="79">
-        <v>1</v>
-      </c>
-      <c r="M101" s="94">
-        <v>1</v>
-      </c>
-      <c r="N101" s="95">
-        <v>1</v>
-      </c>
-      <c r="O101" s="78">
-        <v>1</v>
-      </c>
-      <c r="P101" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="42">
-        <v>1</v>
-      </c>
-      <c r="R101" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="30">
-        <v>1</v>
-      </c>
-      <c r="C102" s="31">
-        <v>1</v>
-      </c>
-      <c r="D102" s="32">
-        <v>1</v>
-      </c>
-      <c r="E102" s="32">
-        <v>1</v>
-      </c>
-      <c r="F102" s="33">
-        <v>1</v>
-      </c>
-      <c r="G102" s="84">
-        <v>1</v>
-      </c>
-      <c r="H102" s="85">
-        <v>1</v>
-      </c>
-      <c r="I102" s="94">
-        <v>1</v>
-      </c>
-      <c r="J102" s="95">
-        <v>1</v>
-      </c>
-      <c r="K102" s="78">
-        <v>1</v>
-      </c>
-      <c r="L102" s="79">
-        <v>1</v>
-      </c>
-      <c r="M102" s="94">
-        <v>1</v>
-      </c>
-      <c r="N102" s="95">
-        <v>1</v>
-      </c>
-      <c r="O102" s="78">
-        <v>1</v>
-      </c>
-      <c r="P102" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="42">
-        <v>1</v>
-      </c>
-      <c r="R102" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B103" s="45">
-        <v>1</v>
-      </c>
-      <c r="C103" s="46">
-        <v>1</v>
-      </c>
-      <c r="D103" s="47">
-        <v>1</v>
-      </c>
-      <c r="E103" s="47">
-        <v>1</v>
-      </c>
-      <c r="F103" s="48">
-        <v>1</v>
-      </c>
-      <c r="G103" s="86">
-        <v>1</v>
-      </c>
-      <c r="H103" s="87">
-        <v>1</v>
-      </c>
-      <c r="I103" s="96">
-        <v>1</v>
-      </c>
-      <c r="J103" s="97">
-        <v>1</v>
-      </c>
-      <c r="K103" s="80">
-        <v>1</v>
-      </c>
-      <c r="L103" s="81">
-        <v>1</v>
-      </c>
-      <c r="M103" s="96">
-        <v>1</v>
-      </c>
-      <c r="N103" s="97">
-        <v>1</v>
-      </c>
-      <c r="O103" s="80">
-        <v>1</v>
-      </c>
-      <c r="P103" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="53">
-        <v>1</v>
-      </c>
-      <c r="R103" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="45">
-        <v>1</v>
-      </c>
-      <c r="C104" s="46">
-        <v>1</v>
-      </c>
-      <c r="D104" s="47">
-        <v>1</v>
-      </c>
-      <c r="E104" s="47">
-        <v>1</v>
-      </c>
-      <c r="F104" s="48">
-        <v>1</v>
-      </c>
-      <c r="G104" s="86">
-        <v>1</v>
-      </c>
-      <c r="H104" s="87">
-        <v>1</v>
-      </c>
-      <c r="I104" s="96">
-        <v>1</v>
-      </c>
-      <c r="J104" s="97">
-        <v>1</v>
-      </c>
-      <c r="K104" s="80">
-        <v>1</v>
-      </c>
-      <c r="L104" s="81">
-        <v>1</v>
-      </c>
-      <c r="M104" s="96">
-        <v>1</v>
-      </c>
-      <c r="N104" s="97">
-        <v>1</v>
-      </c>
-      <c r="O104" s="80">
-        <v>1</v>
-      </c>
-      <c r="P104" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="53">
-        <v>1</v>
-      </c>
-      <c r="R104" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B105" s="45">
-        <v>1</v>
-      </c>
-      <c r="C105" s="46">
-        <v>1</v>
-      </c>
-      <c r="D105" s="47">
-        <v>1</v>
-      </c>
-      <c r="E105" s="47">
-        <v>1</v>
-      </c>
-      <c r="F105" s="48">
-        <v>1</v>
-      </c>
-      <c r="G105" s="86">
-        <v>1</v>
-      </c>
-      <c r="H105" s="87">
-        <v>1</v>
-      </c>
-      <c r="I105" s="96">
-        <v>1</v>
-      </c>
-      <c r="J105" s="97">
-        <v>1</v>
-      </c>
-      <c r="K105" s="80">
-        <v>1</v>
-      </c>
-      <c r="L105" s="81">
-        <v>1</v>
-      </c>
-      <c r="M105" s="96">
-        <v>1</v>
-      </c>
-      <c r="N105" s="97">
-        <v>1</v>
-      </c>
-      <c r="O105" s="80">
-        <v>1</v>
-      </c>
-      <c r="P105" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="53">
-        <v>1</v>
-      </c>
-      <c r="R105" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="30">
-        <v>1</v>
-      </c>
-      <c r="C106" s="31">
-        <v>1</v>
-      </c>
-      <c r="D106" s="32">
-        <v>1</v>
-      </c>
-      <c r="E106" s="32">
-        <v>1</v>
-      </c>
-      <c r="F106" s="33">
-        <v>1</v>
-      </c>
-      <c r="G106" s="84">
-        <v>1</v>
-      </c>
-      <c r="H106" s="85">
-        <v>1</v>
-      </c>
-      <c r="I106" s="94">
-        <v>1</v>
-      </c>
-      <c r="J106" s="95">
-        <v>1</v>
-      </c>
-      <c r="K106" s="78">
-        <v>1</v>
-      </c>
-      <c r="L106" s="79">
-        <v>1</v>
-      </c>
-      <c r="M106" s="94">
-        <v>1</v>
-      </c>
-      <c r="N106" s="95">
-        <v>1</v>
-      </c>
-      <c r="O106" s="78">
-        <v>1</v>
-      </c>
-      <c r="P106" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="42">
-        <v>1</v>
-      </c>
-      <c r="R106" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" s="30">
-        <v>1</v>
-      </c>
-      <c r="C107" s="31">
-        <v>1</v>
-      </c>
-      <c r="D107" s="32">
-        <v>1</v>
-      </c>
-      <c r="E107" s="32">
-        <v>1</v>
-      </c>
-      <c r="F107" s="33">
-        <v>1</v>
-      </c>
-      <c r="G107" s="84">
-        <v>1</v>
-      </c>
-      <c r="H107" s="85">
-        <v>1</v>
-      </c>
-      <c r="I107" s="94">
-        <v>1</v>
-      </c>
-      <c r="J107" s="95">
-        <v>1</v>
-      </c>
-      <c r="K107" s="78">
-        <v>1</v>
-      </c>
-      <c r="L107" s="79">
-        <v>1</v>
-      </c>
-      <c r="M107" s="94">
-        <v>1</v>
-      </c>
-      <c r="N107" s="95">
-        <v>1</v>
-      </c>
-      <c r="O107" s="78">
-        <v>1</v>
-      </c>
-      <c r="P107" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="42">
-        <v>1</v>
-      </c>
-      <c r="R107" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" s="30">
-        <v>1</v>
-      </c>
-      <c r="C108" s="31">
-        <v>1</v>
-      </c>
-      <c r="D108" s="32">
-        <v>1</v>
-      </c>
-      <c r="E108" s="32">
-        <v>1</v>
-      </c>
-      <c r="F108" s="33">
-        <v>1</v>
-      </c>
-      <c r="G108" s="84">
-        <v>1</v>
-      </c>
-      <c r="H108" s="85">
-        <v>1</v>
-      </c>
-      <c r="I108" s="94">
-        <v>1</v>
-      </c>
-      <c r="J108" s="95">
-        <v>1</v>
-      </c>
-      <c r="K108" s="78">
-        <v>1</v>
-      </c>
-      <c r="L108" s="79">
-        <v>1</v>
-      </c>
-      <c r="M108" s="94">
-        <v>1</v>
-      </c>
-      <c r="N108" s="95">
-        <v>1</v>
-      </c>
-      <c r="O108" s="78">
-        <v>1</v>
-      </c>
-      <c r="P108" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="42">
-        <v>1</v>
-      </c>
-      <c r="R108" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="30">
-        <v>1</v>
-      </c>
-      <c r="C109" s="31">
-        <v>1</v>
-      </c>
-      <c r="D109" s="32">
-        <v>1</v>
-      </c>
-      <c r="E109" s="32">
-        <v>1</v>
-      </c>
-      <c r="F109" s="33">
-        <v>1</v>
-      </c>
-      <c r="G109" s="84">
-        <v>1</v>
-      </c>
-      <c r="H109" s="85">
-        <v>1</v>
-      </c>
-      <c r="I109" s="94">
-        <v>1</v>
-      </c>
-      <c r="J109" s="95">
-        <v>1</v>
-      </c>
-      <c r="K109" s="78">
-        <v>1</v>
-      </c>
-      <c r="L109" s="79">
-        <v>1</v>
-      </c>
-      <c r="M109" s="94">
-        <v>1</v>
-      </c>
-      <c r="N109" s="95">
-        <v>1</v>
-      </c>
-      <c r="O109" s="78">
-        <v>1</v>
-      </c>
-      <c r="P109" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="42">
-        <v>1</v>
-      </c>
-      <c r="R109" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B110" s="30">
-        <v>1</v>
-      </c>
-      <c r="C110" s="31">
-        <v>1</v>
-      </c>
-      <c r="D110" s="32">
-        <v>1</v>
-      </c>
-      <c r="E110" s="32">
-        <v>1</v>
-      </c>
-      <c r="F110" s="33">
-        <v>1</v>
-      </c>
-      <c r="G110" s="84">
-        <v>1</v>
-      </c>
-      <c r="H110" s="85">
-        <v>1</v>
-      </c>
-      <c r="I110" s="94">
-        <v>1</v>
-      </c>
-      <c r="J110" s="95">
-        <v>1</v>
-      </c>
-      <c r="K110" s="78">
-        <v>1</v>
-      </c>
-      <c r="L110" s="79">
-        <v>1</v>
-      </c>
-      <c r="M110" s="94">
-        <v>1</v>
-      </c>
-      <c r="N110" s="95">
-        <v>1</v>
-      </c>
-      <c r="O110" s="78">
-        <v>1</v>
-      </c>
-      <c r="P110" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="42">
-        <v>1</v>
-      </c>
-      <c r="R110" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="30">
-        <v>1</v>
-      </c>
-      <c r="C111" s="31">
-        <v>1</v>
-      </c>
-      <c r="D111" s="32">
-        <v>1</v>
-      </c>
-      <c r="E111" s="32">
-        <v>1</v>
-      </c>
-      <c r="F111" s="33">
-        <v>1</v>
-      </c>
-      <c r="G111" s="84">
-        <v>1</v>
-      </c>
-      <c r="H111" s="85">
-        <v>1</v>
-      </c>
-      <c r="I111" s="94">
-        <v>1</v>
-      </c>
-      <c r="J111" s="95">
-        <v>1</v>
-      </c>
-      <c r="K111" s="78">
-        <v>1</v>
-      </c>
-      <c r="L111" s="79">
-        <v>1</v>
-      </c>
-      <c r="M111" s="94">
-        <v>1</v>
-      </c>
-      <c r="N111" s="95">
-        <v>1</v>
-      </c>
-      <c r="O111" s="78">
-        <v>1</v>
-      </c>
-      <c r="P111" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="42">
-        <v>1</v>
-      </c>
-      <c r="R111" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B112" s="45">
-        <v>1</v>
-      </c>
-      <c r="C112" s="46">
-        <v>1</v>
-      </c>
-      <c r="D112" s="47">
-        <v>1</v>
-      </c>
-      <c r="E112" s="47">
-        <v>1</v>
-      </c>
-      <c r="F112" s="48">
-        <v>1</v>
-      </c>
-      <c r="G112" s="86">
-        <v>1</v>
-      </c>
-      <c r="H112" s="87">
-        <v>1</v>
-      </c>
-      <c r="I112" s="96">
-        <v>1</v>
-      </c>
-      <c r="J112" s="97">
-        <v>1</v>
-      </c>
-      <c r="K112" s="80">
-        <v>1</v>
-      </c>
-      <c r="L112" s="81">
-        <v>1</v>
-      </c>
-      <c r="M112" s="96">
-        <v>1</v>
-      </c>
-      <c r="N112" s="97">
-        <v>1</v>
-      </c>
-      <c r="O112" s="80">
-        <v>1</v>
-      </c>
-      <c r="P112" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="53">
-        <v>1</v>
-      </c>
-      <c r="R112" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B113" s="45">
-        <v>1</v>
-      </c>
-      <c r="C113" s="46">
-        <v>1</v>
-      </c>
-      <c r="D113" s="47">
-        <v>1</v>
-      </c>
-      <c r="E113" s="47">
-        <v>1</v>
-      </c>
-      <c r="F113" s="48">
-        <v>1</v>
-      </c>
-      <c r="G113" s="86">
-        <v>1</v>
-      </c>
-      <c r="H113" s="87">
-        <v>1</v>
-      </c>
-      <c r="I113" s="96">
-        <v>1</v>
-      </c>
-      <c r="J113" s="97">
-        <v>1</v>
-      </c>
-      <c r="K113" s="80">
-        <v>1</v>
-      </c>
-      <c r="L113" s="81">
-        <v>1</v>
-      </c>
-      <c r="M113" s="96">
-        <v>1</v>
-      </c>
-      <c r="N113" s="97">
-        <v>1</v>
-      </c>
-      <c r="O113" s="80">
-        <v>1</v>
-      </c>
-      <c r="P113" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="53">
-        <v>1</v>
-      </c>
-      <c r="R113" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" s="45">
-        <v>1</v>
-      </c>
-      <c r="C114" s="46">
-        <v>1</v>
-      </c>
-      <c r="D114" s="47">
-        <v>1</v>
-      </c>
-      <c r="E114" s="47">
-        <v>1</v>
-      </c>
-      <c r="F114" s="48">
-        <v>1</v>
-      </c>
-      <c r="G114" s="86">
-        <v>1</v>
-      </c>
-      <c r="H114" s="87">
-        <v>1</v>
-      </c>
-      <c r="I114" s="96">
-        <v>1</v>
-      </c>
-      <c r="J114" s="97">
-        <v>1</v>
-      </c>
-      <c r="K114" s="80">
-        <v>1</v>
-      </c>
-      <c r="L114" s="81">
-        <v>1</v>
-      </c>
-      <c r="M114" s="96">
-        <v>1</v>
-      </c>
-      <c r="N114" s="97">
-        <v>1</v>
-      </c>
-      <c r="O114" s="80">
-        <v>1</v>
-      </c>
-      <c r="P114" s="81">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="53">
-        <v>1</v>
-      </c>
-      <c r="R114" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B115" s="30">
-        <v>1</v>
-      </c>
-      <c r="C115" s="31">
-        <v>1</v>
-      </c>
-      <c r="D115" s="32">
-        <v>1</v>
-      </c>
-      <c r="E115" s="32">
-        <v>1</v>
-      </c>
-      <c r="F115" s="33">
-        <v>1</v>
-      </c>
-      <c r="G115" s="84">
-        <v>1</v>
-      </c>
-      <c r="H115" s="85">
-        <v>1</v>
-      </c>
-      <c r="I115" s="94">
-        <v>1</v>
-      </c>
-      <c r="J115" s="95">
-        <v>1</v>
-      </c>
-      <c r="K115" s="78">
-        <v>1</v>
-      </c>
-      <c r="L115" s="79">
-        <v>1</v>
-      </c>
-      <c r="M115" s="94">
-        <v>1</v>
-      </c>
-      <c r="N115" s="95">
-        <v>1</v>
-      </c>
-      <c r="O115" s="78">
-        <v>1</v>
-      </c>
-      <c r="P115" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="42">
-        <v>1</v>
-      </c>
-      <c r="R115" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" s="30">
-        <v>1</v>
-      </c>
-      <c r="C116" s="31">
-        <v>1</v>
-      </c>
-      <c r="D116" s="32">
-        <v>1</v>
-      </c>
-      <c r="E116" s="32">
-        <v>1</v>
-      </c>
-      <c r="F116" s="33">
-        <v>1</v>
-      </c>
-      <c r="G116" s="84">
-        <v>1</v>
-      </c>
-      <c r="H116" s="85">
-        <v>1</v>
-      </c>
-      <c r="I116" s="94">
-        <v>1</v>
-      </c>
-      <c r="J116" s="95">
-        <v>1</v>
-      </c>
-      <c r="K116" s="78">
-        <v>1</v>
-      </c>
-      <c r="L116" s="79">
-        <v>1</v>
-      </c>
-      <c r="M116" s="94">
-        <v>1</v>
-      </c>
-      <c r="N116" s="95">
-        <v>1</v>
-      </c>
-      <c r="O116" s="78">
-        <v>1</v>
-      </c>
-      <c r="P116" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="42">
-        <v>1</v>
-      </c>
-      <c r="R116" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" s="30">
-        <v>1</v>
-      </c>
-      <c r="C117" s="31">
-        <v>1</v>
-      </c>
-      <c r="D117" s="32">
-        <v>1</v>
-      </c>
-      <c r="E117" s="32">
-        <v>1</v>
-      </c>
-      <c r="F117" s="33">
-        <v>1</v>
-      </c>
-      <c r="G117" s="84">
-        <v>1</v>
-      </c>
-      <c r="H117" s="85">
-        <v>1</v>
-      </c>
-      <c r="I117" s="94">
-        <v>1</v>
-      </c>
-      <c r="J117" s="95">
-        <v>1</v>
-      </c>
-      <c r="K117" s="78">
-        <v>1</v>
-      </c>
-      <c r="L117" s="79">
-        <v>1</v>
-      </c>
-      <c r="M117" s="94">
-        <v>1</v>
-      </c>
-      <c r="N117" s="95">
-        <v>1</v>
-      </c>
-      <c r="O117" s="78">
-        <v>1</v>
-      </c>
-      <c r="P117" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="42">
-        <v>1</v>
-      </c>
-      <c r="R117" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="30">
-        <v>1</v>
-      </c>
-      <c r="C118" s="31">
-        <v>1</v>
-      </c>
-      <c r="D118" s="32">
-        <v>1</v>
-      </c>
-      <c r="E118" s="32">
-        <v>1</v>
-      </c>
-      <c r="F118" s="33">
-        <v>1</v>
-      </c>
-      <c r="G118" s="84">
-        <v>1</v>
-      </c>
-      <c r="H118" s="85">
-        <v>1</v>
-      </c>
-      <c r="I118" s="94">
-        <v>1</v>
-      </c>
-      <c r="J118" s="95">
-        <v>1</v>
-      </c>
-      <c r="K118" s="78">
-        <v>1</v>
-      </c>
-      <c r="L118" s="79">
-        <v>1</v>
-      </c>
-      <c r="M118" s="94">
-        <v>1</v>
-      </c>
-      <c r="N118" s="95">
-        <v>1</v>
-      </c>
-      <c r="O118" s="78">
-        <v>1</v>
-      </c>
-      <c r="P118" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="42">
-        <v>1</v>
-      </c>
-      <c r="R118" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="55">
-        <v>1</v>
-      </c>
-      <c r="C119" s="56">
-        <v>1</v>
-      </c>
-      <c r="D119" s="57">
-        <v>1</v>
-      </c>
-      <c r="E119" s="57">
-        <v>1</v>
-      </c>
-      <c r="F119" s="58">
-        <v>1</v>
-      </c>
-      <c r="G119" s="88">
-        <v>1</v>
-      </c>
-      <c r="H119" s="89">
-        <v>1</v>
-      </c>
-      <c r="I119" s="98">
-        <v>1</v>
-      </c>
-      <c r="J119" s="99">
-        <v>1</v>
-      </c>
-      <c r="K119" s="82">
-        <v>1</v>
-      </c>
-      <c r="L119" s="83">
-        <v>1</v>
-      </c>
-      <c r="M119" s="98">
-        <v>1</v>
-      </c>
-      <c r="N119" s="99">
-        <v>1</v>
-      </c>
-      <c r="O119" s="82">
-        <v>1</v>
-      </c>
-      <c r="P119" s="83">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="63">
-        <v>1</v>
-      </c>
-      <c r="R119" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B120" s="65">
-        <f>SUM(B96:B119)</f>
-        <v>24</v>
-      </c>
-      <c r="C120" s="66">
-        <f ref="C120:F120" si="5" t="shared">SUM(C96:C119)</f>
-        <v>24</v>
-      </c>
-      <c r="D120" s="67">
-        <f si="5" t="shared"/>
-        <v>24</v>
-      </c>
-      <c r="E120" s="67">
-        <f si="5" t="shared"/>
-        <v>24</v>
-      </c>
-      <c r="F120" s="68">
-        <f si="5" t="shared"/>
-        <v>24</v>
-      </c>
-      <c r="G120" s="100">
-        <f>D120/B120</f>
-        <v>1</v>
-      </c>
-      <c r="H120" s="101">
-        <f>E120/C120</f>
-        <v>1</v>
-      </c>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="17"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="28"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="29"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="43"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="43"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="43"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99" s="29"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="40"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="40"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="43"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" s="29"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="41"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="42"/>
+      <c r="R100" s="43"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="40"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="40"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="42"/>
+      <c r="R101" s="43"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="29"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="40"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="40"/>
+      <c r="N102" s="41"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="42"/>
+      <c r="R102" s="43"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="44"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="49"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="49"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="49"/>
+      <c r="P103" s="50"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="54"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="44"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="49"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="49"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="49"/>
+      <c r="P104" s="50"/>
+      <c r="Q104" s="53"/>
+      <c r="R104" s="54"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" s="44"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="49"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="52"/>
+      <c r="O105" s="49"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="53"/>
+      <c r="R105" s="54"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" s="29"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="35"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="43"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" s="29"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="35"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="43"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" s="29"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="35"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="43"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="35"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="43"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" s="29"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="34"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="41"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="35"/>
+      <c r="Q110" s="42"/>
+      <c r="R110" s="43"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" s="29"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="34"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="34"/>
+      <c r="P111" s="35"/>
+      <c r="Q111" s="42"/>
+      <c r="R111" s="43"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" s="44"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="49"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="52"/>
+      <c r="O112" s="49"/>
+      <c r="P112" s="50"/>
+      <c r="Q112" s="53"/>
+      <c r="R112" s="54"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" s="44"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="50"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="49"/>
+      <c r="L113" s="50"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="52"/>
+      <c r="O113" s="49"/>
+      <c r="P113" s="50"/>
+      <c r="Q113" s="53"/>
+      <c r="R113" s="54"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A114" s="44"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="52"/>
+      <c r="O114" s="49"/>
+      <c r="P114" s="50"/>
+      <c r="Q114" s="53"/>
+      <c r="R114" s="54"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" s="29"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="34"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="42"/>
+      <c r="R115" s="43"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A116" s="29"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="41"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="35"/>
+      <c r="Q116" s="42"/>
+      <c r="R116" s="43"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" s="29"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="34"/>
+      <c r="P117" s="35"/>
+      <c r="Q117" s="42"/>
+      <c r="R117" s="43"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A118" s="29"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="34"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="35"/>
+      <c r="Q118" s="42"/>
+      <c r="R118" s="43"/>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A119" s="29"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="59"/>
+      <c r="L119" s="60"/>
+      <c r="M119" s="61"/>
+      <c r="N119" s="62"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="60"/>
+      <c r="Q119" s="63"/>
+      <c r="R119" s="64"/>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A120" s="29"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="69"/>
+      <c r="H120" s="70"/>
       <c r="I120" s="71"/>
       <c r="J120" s="71"/>
       <c r="K120" s="71"/>
       <c r="L120" s="71"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B122" s="72">
-        <f>B120+C120</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B123" s="72">
-        <f>D120+E120</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" s="72">
-        <f>B122+B123</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B122" s="72"/>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B123" s="72"/>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B124" s="72"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -6506,11 +5484,9 @@
       <c r="Q125"/>
       <c r="R125"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" s="72"/>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+      <c r="B126" s="5"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126"/>
@@ -6518,10 +5494,7 @@
       <c r="Q126"/>
       <c r="R126"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>44</v>
-      </c>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -6530,10 +5503,7 @@
       <c r="Q127"/>
       <c r="R127"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -6542,10 +5512,7 @@
       <c r="Q128"/>
       <c r="R128"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>46</v>
-      </c>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -6554,10 +5521,7 @@
       <c r="Q129"/>
       <c r="R129"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -6566,10 +5530,7 @@
       <c r="Q130"/>
       <c r="R130"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>48</v>
-      </c>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -6578,10 +5539,7 @@
       <c r="Q131"/>
       <c r="R131"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -6590,10 +5548,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>50</v>
-      </c>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -6602,10 +5557,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>51</v>
-      </c>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -6614,12 +5566,12 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
-    <row ht="15.75" r="138" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="138" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="102"/>
       <c r="C138" s="103"/>
@@ -6639,7 +5591,7 @@
       <c r="Q138" s="108"/>
       <c r="R138" s="109"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="9"/>
@@ -6659,7 +5611,7 @@
       <c r="Q139" s="16"/>
       <c r="R139" s="17"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
       <c r="B140" s="19"/>
       <c r="C140" s="20"/>
@@ -6679,7 +5631,7 @@
       <c r="Q140" s="27"/>
       <c r="R140" s="28"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="29"/>
       <c r="B141" s="30"/>
       <c r="C141" s="31"/>
@@ -6699,7 +5651,7 @@
       <c r="Q141" s="42"/>
       <c r="R141" s="43"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="29"/>
       <c r="B142" s="30"/>
       <c r="C142" s="31"/>
@@ -6719,7 +5671,7 @@
       <c r="Q142" s="42"/>
       <c r="R142" s="43"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="29"/>
       <c r="B143" s="30"/>
       <c r="C143" s="31"/>
@@ -6739,7 +5691,7 @@
       <c r="Q143" s="42"/>
       <c r="R143" s="43"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="29"/>
       <c r="B144" s="30"/>
       <c r="C144" s="31"/>
@@ -6759,7 +5711,7 @@
       <c r="Q144" s="42"/>
       <c r="R144" s="43"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="29"/>
       <c r="B145" s="30"/>
       <c r="C145" s="31"/>
@@ -6779,7 +5731,7 @@
       <c r="Q145" s="42"/>
       <c r="R145" s="43"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="29"/>
       <c r="B146" s="30"/>
       <c r="C146" s="31"/>
@@ -6799,7 +5751,7 @@
       <c r="Q146" s="42"/>
       <c r="R146" s="43"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="29"/>
       <c r="B147" s="30"/>
       <c r="C147" s="31"/>
@@ -6819,7 +5771,7 @@
       <c r="Q147" s="42"/>
       <c r="R147" s="43"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="44"/>
       <c r="B148" s="45"/>
       <c r="C148" s="46"/>
@@ -6839,7 +5791,7 @@
       <c r="Q148" s="53"/>
       <c r="R148" s="54"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="44"/>
       <c r="B149" s="45"/>
       <c r="C149" s="46"/>
@@ -6859,7 +5811,7 @@
       <c r="Q149" s="53"/>
       <c r="R149" s="54"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="44"/>
       <c r="B150" s="45"/>
       <c r="C150" s="46"/>
@@ -6879,7 +5831,7 @@
       <c r="Q150" s="53"/>
       <c r="R150" s="54"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="29"/>
       <c r="B151" s="30"/>
       <c r="C151" s="31"/>
@@ -6899,7 +5851,7 @@
       <c r="Q151" s="42"/>
       <c r="R151" s="43"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="29"/>
       <c r="B152" s="30"/>
       <c r="C152" s="31"/>
@@ -6919,7 +5871,7 @@
       <c r="Q152" s="42"/>
       <c r="R152" s="43"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="29"/>
       <c r="B153" s="30"/>
       <c r="C153" s="31"/>
@@ -6939,7 +5891,7 @@
       <c r="Q153" s="42"/>
       <c r="R153" s="43"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="29"/>
       <c r="B154" s="30"/>
       <c r="C154" s="31"/>
@@ -6959,7 +5911,7 @@
       <c r="Q154" s="42"/>
       <c r="R154" s="43"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="29"/>
       <c r="B155" s="30"/>
       <c r="C155" s="31"/>
@@ -6979,7 +5931,7 @@
       <c r="Q155" s="42"/>
       <c r="R155" s="43"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="29"/>
       <c r="B156" s="30"/>
       <c r="C156" s="31"/>
@@ -6999,7 +5951,7 @@
       <c r="Q156" s="42"/>
       <c r="R156" s="43"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="44"/>
       <c r="B157" s="45"/>
       <c r="C157" s="46"/>
@@ -7019,7 +5971,7 @@
       <c r="Q157" s="53"/>
       <c r="R157" s="54"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="44"/>
       <c r="B158" s="45"/>
       <c r="C158" s="46"/>
@@ -7039,7 +5991,7 @@
       <c r="Q158" s="53"/>
       <c r="R158" s="54"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="44"/>
       <c r="B159" s="45"/>
       <c r="C159" s="46"/>
@@ -7059,7 +6011,7 @@
       <c r="Q159" s="53"/>
       <c r="R159" s="54"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="29"/>
       <c r="B160" s="30"/>
       <c r="C160" s="31"/>
@@ -7079,7 +6031,7 @@
       <c r="Q160" s="42"/>
       <c r="R160" s="43"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="29"/>
       <c r="B161" s="30"/>
       <c r="C161" s="31"/>
@@ -7099,7 +6051,7 @@
       <c r="Q161" s="42"/>
       <c r="R161" s="43"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="29"/>
       <c r="B162" s="30"/>
       <c r="C162" s="31"/>
@@ -7119,7 +6071,7 @@
       <c r="Q162" s="42"/>
       <c r="R162" s="43"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="29"/>
       <c r="B163" s="30"/>
       <c r="C163" s="31"/>
@@ -7139,7 +6091,7 @@
       <c r="Q163" s="42"/>
       <c r="R163" s="43"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="29"/>
       <c r="B164" s="55"/>
       <c r="C164" s="56"/>
@@ -7159,7 +6111,7 @@
       <c r="Q164" s="63"/>
       <c r="R164" s="64"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="29"/>
       <c r="B165" s="65"/>
       <c r="C165" s="66"/>
@@ -7173,16 +6125,16 @@
       <c r="K165" s="71"/>
       <c r="L165" s="71"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B167" s="72"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B168" s="72"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B169" s="72"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -7192,7 +6144,7 @@
       <c r="Q170"/>
       <c r="R170"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="5"/>
       <c r="C171"/>
@@ -7202,7 +6154,7 @@
       <c r="Q171"/>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="C172"/>
       <c r="D172"/>
@@ -7211,7 +6163,7 @@
       <c r="Q172"/>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="C173"/>
       <c r="D173"/>
@@ -7220,7 +6172,7 @@
       <c r="Q173"/>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -7229,7 +6181,7 @@
       <c r="Q174"/>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -7238,7 +6190,7 @@
       <c r="Q175"/>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="C176"/>
       <c r="D176"/>
@@ -7247,7 +6199,7 @@
       <c r="Q176"/>
       <c r="R176"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="C177"/>
       <c r="D177"/>
@@ -7256,7 +6208,7 @@
       <c r="Q177"/>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="C178"/>
       <c r="D178"/>
@@ -7265,7 +6217,7 @@
       <c r="Q178"/>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="C179"/>
       <c r="D179"/>
@@ -7274,12 +6226,12 @@
       <c r="Q179"/>
       <c r="R179"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
     </row>
-    <row ht="15.75" r="183" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="183" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="102"/>
       <c r="C183" s="103"/>
@@ -7299,7 +6251,7 @@
       <c r="Q183" s="108"/>
       <c r="R183" s="109"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="9"/>
@@ -7319,7 +6271,7 @@
       <c r="Q184" s="16"/>
       <c r="R184" s="17"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="19"/>
       <c r="C185" s="20"/>
@@ -7339,7 +6291,7 @@
       <c r="Q185" s="27"/>
       <c r="R185" s="28"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="29"/>
       <c r="B186" s="30"/>
       <c r="C186" s="31"/>
@@ -7359,7 +6311,7 @@
       <c r="Q186" s="42"/>
       <c r="R186" s="43"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="29"/>
       <c r="B187" s="30"/>
       <c r="C187" s="31"/>
@@ -7379,7 +6331,7 @@
       <c r="Q187" s="42"/>
       <c r="R187" s="43"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="29"/>
       <c r="B188" s="30"/>
       <c r="C188" s="31"/>
@@ -7399,7 +6351,7 @@
       <c r="Q188" s="42"/>
       <c r="R188" s="43"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="29"/>
       <c r="B189" s="30"/>
       <c r="C189" s="31"/>
@@ -7419,7 +6371,7 @@
       <c r="Q189" s="42"/>
       <c r="R189" s="43"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="29"/>
       <c r="B190" s="30"/>
       <c r="C190" s="31"/>
@@ -7439,7 +6391,7 @@
       <c r="Q190" s="42"/>
       <c r="R190" s="43"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="29"/>
       <c r="B191" s="30"/>
       <c r="C191" s="31"/>
@@ -7459,7 +6411,7 @@
       <c r="Q191" s="42"/>
       <c r="R191" s="43"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="29"/>
       <c r="B192" s="30"/>
       <c r="C192" s="31"/>
@@ -7479,7 +6431,7 @@
       <c r="Q192" s="42"/>
       <c r="R192" s="43"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="44"/>
       <c r="B193" s="45"/>
       <c r="C193" s="46"/>
@@ -7499,7 +6451,7 @@
       <c r="Q193" s="53"/>
       <c r="R193" s="54"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="44"/>
       <c r="B194" s="45"/>
       <c r="C194" s="46"/>
@@ -7519,7 +6471,7 @@
       <c r="Q194" s="53"/>
       <c r="R194" s="54"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="44"/>
       <c r="B195" s="45"/>
       <c r="C195" s="46"/>
@@ -7539,7 +6491,7 @@
       <c r="Q195" s="53"/>
       <c r="R195" s="54"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="29"/>
       <c r="B196" s="30"/>
       <c r="C196" s="31"/>
@@ -7559,7 +6511,7 @@
       <c r="Q196" s="42"/>
       <c r="R196" s="43"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="29"/>
       <c r="B197" s="30"/>
       <c r="C197" s="31"/>
@@ -7579,7 +6531,7 @@
       <c r="Q197" s="42"/>
       <c r="R197" s="43"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="29"/>
       <c r="B198" s="30"/>
       <c r="C198" s="31"/>
@@ -7599,7 +6551,7 @@
       <c r="Q198" s="42"/>
       <c r="R198" s="43"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="29"/>
       <c r="B199" s="30"/>
       <c r="C199" s="31"/>
@@ -7619,7 +6571,7 @@
       <c r="Q199" s="42"/>
       <c r="R199" s="43"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="29"/>
       <c r="B200" s="30"/>
       <c r="C200" s="31"/>
@@ -7639,7 +6591,7 @@
       <c r="Q200" s="42"/>
       <c r="R200" s="43"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="29"/>
       <c r="B201" s="30"/>
       <c r="C201" s="31"/>
@@ -7659,7 +6611,7 @@
       <c r="Q201" s="42"/>
       <c r="R201" s="43"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="44"/>
       <c r="B202" s="45"/>
       <c r="C202" s="46"/>
@@ -7679,7 +6631,7 @@
       <c r="Q202" s="53"/>
       <c r="R202" s="54"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="44"/>
       <c r="B203" s="45"/>
       <c r="C203" s="46"/>
@@ -7699,7 +6651,7 @@
       <c r="Q203" s="53"/>
       <c r="R203" s="54"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="44"/>
       <c r="B204" s="45"/>
       <c r="C204" s="46"/>
@@ -7719,7 +6671,7 @@
       <c r="Q204" s="53"/>
       <c r="R204" s="54"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="29"/>
       <c r="B205" s="30"/>
       <c r="C205" s="31"/>
@@ -7739,7 +6691,7 @@
       <c r="Q205" s="42"/>
       <c r="R205" s="43"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="29"/>
       <c r="B206" s="30"/>
       <c r="C206" s="31"/>
@@ -7759,7 +6711,7 @@
       <c r="Q206" s="42"/>
       <c r="R206" s="43"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="29"/>
       <c r="B207" s="30"/>
       <c r="C207" s="31"/>
@@ -7779,7 +6731,7 @@
       <c r="Q207" s="42"/>
       <c r="R207" s="43"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="29"/>
       <c r="B208" s="30"/>
       <c r="C208" s="31"/>
@@ -7799,7 +6751,7 @@
       <c r="Q208" s="42"/>
       <c r="R208" s="43"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="29"/>
       <c r="B209" s="55"/>
       <c r="C209" s="56"/>
@@ -7819,7 +6771,7 @@
       <c r="Q209" s="63"/>
       <c r="R209" s="64"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="29"/>
       <c r="B210" s="65"/>
       <c r="C210" s="66"/>
@@ -7833,16 +6785,16 @@
       <c r="K210" s="71"/>
       <c r="L210" s="71"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B212" s="72"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B213" s="72"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B214" s="72"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
@@ -7861,7 +6813,7 @@
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -7881,7 +6833,7 @@
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
@@ -7900,7 +6852,7 @@
       <c r="Q217" s="5"/>
       <c r="R217" s="5"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
@@ -7919,7 +6871,7 @@
       <c r="Q218" s="5"/>
       <c r="R218" s="5"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
@@ -7938,7 +6890,7 @@
       <c r="Q219" s="5"/>
       <c r="R219" s="5"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
@@ -7957,7 +6909,7 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
@@ -7976,7 +6928,7 @@
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
@@ -7995,7 +6947,7 @@
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
@@ -8014,7 +6966,7 @@
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
@@ -8033,12 +6985,12 @@
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
     </row>
-    <row ht="15.75" r="228" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="228" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="74"/>
       <c r="C228" s="75"/>
@@ -8058,7 +7010,7 @@
       <c r="Q228" s="108"/>
       <c r="R228" s="109"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="9"/>
@@ -8078,7 +7030,7 @@
       <c r="Q229" s="16"/>
       <c r="R229" s="17"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
       <c r="B230" s="19"/>
       <c r="C230" s="20"/>
@@ -8098,7 +7050,7 @@
       <c r="Q230" s="27"/>
       <c r="R230" s="28"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="29"/>
       <c r="B231" s="30"/>
       <c r="C231" s="31"/>
@@ -8118,7 +7070,7 @@
       <c r="Q231" s="42"/>
       <c r="R231" s="43"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="29"/>
       <c r="B232" s="30"/>
       <c r="C232" s="31"/>
@@ -8138,7 +7090,7 @@
       <c r="Q232" s="42"/>
       <c r="R232" s="43"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="29"/>
       <c r="B233" s="30"/>
       <c r="C233" s="31"/>
@@ -8158,7 +7110,7 @@
       <c r="Q233" s="42"/>
       <c r="R233" s="43"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="29"/>
       <c r="B234" s="30"/>
       <c r="C234" s="31"/>
@@ -8178,7 +7130,7 @@
       <c r="Q234" s="42"/>
       <c r="R234" s="43"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="29"/>
       <c r="B235" s="30"/>
       <c r="C235" s="31"/>
@@ -8198,7 +7150,7 @@
       <c r="Q235" s="42"/>
       <c r="R235" s="43"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="29"/>
       <c r="B236" s="30"/>
       <c r="C236" s="31"/>
@@ -8218,7 +7170,7 @@
       <c r="Q236" s="42"/>
       <c r="R236" s="43"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="29"/>
       <c r="B237" s="30"/>
       <c r="C237" s="31"/>
@@ -8238,7 +7190,7 @@
       <c r="Q237" s="42"/>
       <c r="R237" s="43"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="44"/>
       <c r="B238" s="45"/>
       <c r="C238" s="46"/>
@@ -8258,7 +7210,7 @@
       <c r="Q238" s="53"/>
       <c r="R238" s="54"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="44"/>
       <c r="B239" s="45"/>
       <c r="C239" s="46"/>
@@ -8278,7 +7230,7 @@
       <c r="Q239" s="53"/>
       <c r="R239" s="54"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" s="44"/>
       <c r="B240" s="45"/>
       <c r="C240" s="46"/>
@@ -8298,7 +7250,7 @@
       <c r="Q240" s="53"/>
       <c r="R240" s="54"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="29"/>
       <c r="B241" s="30"/>
       <c r="C241" s="31"/>
@@ -8318,7 +7270,7 @@
       <c r="Q241" s="42"/>
       <c r="R241" s="43"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="29"/>
       <c r="B242" s="30"/>
       <c r="C242" s="31"/>
@@ -8338,7 +7290,7 @@
       <c r="Q242" s="42"/>
       <c r="R242" s="43"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="29"/>
       <c r="B243" s="30"/>
       <c r="C243" s="31"/>
@@ -8358,7 +7310,7 @@
       <c r="Q243" s="42"/>
       <c r="R243" s="43"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="29"/>
       <c r="B244" s="30"/>
       <c r="C244" s="31"/>
@@ -8378,7 +7330,7 @@
       <c r="Q244" s="42"/>
       <c r="R244" s="43"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="29"/>
       <c r="B245" s="30"/>
       <c r="C245" s="31"/>
@@ -8398,7 +7350,7 @@
       <c r="Q245" s="42"/>
       <c r="R245" s="43"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="29"/>
       <c r="B246" s="30"/>
       <c r="C246" s="31"/>
@@ -8418,7 +7370,7 @@
       <c r="Q246" s="42"/>
       <c r="R246" s="43"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="44"/>
       <c r="B247" s="45"/>
       <c r="C247" s="46"/>
@@ -8438,7 +7390,7 @@
       <c r="Q247" s="53"/>
       <c r="R247" s="54"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="44"/>
       <c r="B248" s="45"/>
       <c r="C248" s="46"/>
@@ -8458,7 +7410,7 @@
       <c r="Q248" s="53"/>
       <c r="R248" s="54"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="44"/>
       <c r="B249" s="45"/>
       <c r="C249" s="46"/>
@@ -8478,7 +7430,7 @@
       <c r="Q249" s="53"/>
       <c r="R249" s="54"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="29"/>
       <c r="B250" s="30"/>
       <c r="C250" s="31"/>
@@ -8498,7 +7450,7 @@
       <c r="Q250" s="42"/>
       <c r="R250" s="43"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="29"/>
       <c r="B251" s="30"/>
       <c r="C251" s="31"/>
@@ -8518,7 +7470,7 @@
       <c r="Q251" s="42"/>
       <c r="R251" s="43"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="29"/>
       <c r="B252" s="30"/>
       <c r="C252" s="31"/>
@@ -8538,7 +7490,7 @@
       <c r="Q252" s="42"/>
       <c r="R252" s="43"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="29"/>
       <c r="B253" s="30"/>
       <c r="C253" s="31"/>
@@ -8558,7 +7510,7 @@
       <c r="Q253" s="42"/>
       <c r="R253" s="43"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="29"/>
       <c r="B254" s="55"/>
       <c r="C254" s="56"/>
@@ -8578,7 +7530,7 @@
       <c r="Q254" s="63"/>
       <c r="R254" s="64"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="29"/>
       <c r="B255" s="65"/>
       <c r="C255" s="66"/>
@@ -8592,16 +7544,16 @@
       <c r="K255" s="71"/>
       <c r="L255" s="71"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B257" s="72"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B258" s="72"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B259" s="72"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
@@ -8611,7 +7563,7 @@
       <c r="Q260"/>
       <c r="R260"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="5"/>
       <c r="C261"/>
@@ -8621,7 +7573,7 @@
       <c r="Q261"/>
       <c r="R261"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="C262"/>
       <c r="D262"/>
@@ -8630,7 +7582,7 @@
       <c r="Q262"/>
       <c r="R262"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="C263"/>
       <c r="D263"/>
@@ -8639,7 +7591,7 @@
       <c r="Q263"/>
       <c r="R263"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -8648,7 +7600,7 @@
       <c r="Q264"/>
       <c r="R264"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="C265"/>
       <c r="D265"/>
@@ -8657,7 +7609,7 @@
       <c r="Q265"/>
       <c r="R265"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="C266"/>
       <c r="D266"/>
@@ -8666,7 +7618,7 @@
       <c r="Q266"/>
       <c r="R266"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="C267"/>
       <c r="D267"/>
@@ -8675,7 +7627,7 @@
       <c r="Q267"/>
       <c r="R267"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="C268"/>
       <c r="D268"/>
@@ -8684,7 +7636,7 @@
       <c r="Q268"/>
       <c r="R268"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="C269"/>
       <c r="D269"/>
@@ -8693,12 +7645,12 @@
       <c r="Q269"/>
       <c r="R269"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
-    <row ht="15.75" r="273" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="273" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="B273" s="102"/>
       <c r="C273" s="103"/>
@@ -8718,7 +7670,7 @@
       <c r="Q273" s="108"/>
       <c r="R273" s="109"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
       <c r="B274" s="8"/>
       <c r="C274" s="9"/>
@@ -8738,7 +7690,7 @@
       <c r="Q274" s="16"/>
       <c r="R274" s="17"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="18"/>
       <c r="B275" s="19"/>
       <c r="C275" s="20"/>
@@ -8758,7 +7710,7 @@
       <c r="Q275" s="27"/>
       <c r="R275" s="28"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="29"/>
       <c r="B276" s="30"/>
       <c r="C276" s="31"/>
@@ -8778,7 +7730,7 @@
       <c r="Q276" s="42"/>
       <c r="R276" s="43"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="29"/>
       <c r="B277" s="30"/>
       <c r="C277" s="31"/>
@@ -8798,7 +7750,7 @@
       <c r="Q277" s="42"/>
       <c r="R277" s="43"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="29"/>
       <c r="B278" s="30"/>
       <c r="C278" s="31"/>
@@ -8818,7 +7770,7 @@
       <c r="Q278" s="42"/>
       <c r="R278" s="43"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="29"/>
       <c r="B279" s="30"/>
       <c r="C279" s="31"/>
@@ -8838,7 +7790,7 @@
       <c r="Q279" s="42"/>
       <c r="R279" s="43"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="29"/>
       <c r="B280" s="30"/>
       <c r="C280" s="31"/>
@@ -8858,7 +7810,7 @@
       <c r="Q280" s="42"/>
       <c r="R280" s="43"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="29"/>
       <c r="B281" s="30"/>
       <c r="C281" s="31"/>
@@ -8878,7 +7830,7 @@
       <c r="Q281" s="42"/>
       <c r="R281" s="43"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" s="29"/>
       <c r="B282" s="30"/>
       <c r="C282" s="31"/>
@@ -8898,7 +7850,7 @@
       <c r="Q282" s="42"/>
       <c r="R282" s="43"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" s="44"/>
       <c r="B283" s="45"/>
       <c r="C283" s="46"/>
@@ -8918,7 +7870,7 @@
       <c r="Q283" s="53"/>
       <c r="R283" s="54"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="44"/>
       <c r="B284" s="45"/>
       <c r="C284" s="46"/>
@@ -8938,7 +7890,7 @@
       <c r="Q284" s="53"/>
       <c r="R284" s="54"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="44"/>
       <c r="B285" s="45"/>
       <c r="C285" s="46"/>
@@ -8958,7 +7910,7 @@
       <c r="Q285" s="53"/>
       <c r="R285" s="54"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="29"/>
       <c r="B286" s="30"/>
       <c r="C286" s="31"/>
@@ -8978,7 +7930,7 @@
       <c r="Q286" s="42"/>
       <c r="R286" s="43"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="29"/>
       <c r="B287" s="30"/>
       <c r="C287" s="31"/>
@@ -8998,7 +7950,7 @@
       <c r="Q287" s="42"/>
       <c r="R287" s="43"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="29"/>
       <c r="B288" s="30"/>
       <c r="C288" s="31"/>
@@ -9018,7 +7970,7 @@
       <c r="Q288" s="42"/>
       <c r="R288" s="43"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="29"/>
       <c r="B289" s="30"/>
       <c r="C289" s="31"/>
@@ -9038,7 +7990,7 @@
       <c r="Q289" s="42"/>
       <c r="R289" s="43"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="29"/>
       <c r="B290" s="30"/>
       <c r="C290" s="31"/>
@@ -9058,7 +8010,7 @@
       <c r="Q290" s="42"/>
       <c r="R290" s="43"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="29"/>
       <c r="B291" s="30"/>
       <c r="C291" s="31"/>
@@ -9078,7 +8030,7 @@
       <c r="Q291" s="42"/>
       <c r="R291" s="43"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="44"/>
       <c r="B292" s="45"/>
       <c r="C292" s="46"/>
@@ -9098,7 +8050,7 @@
       <c r="Q292" s="53"/>
       <c r="R292" s="54"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="44"/>
       <c r="B293" s="45"/>
       <c r="C293" s="46"/>
@@ -9118,7 +8070,7 @@
       <c r="Q293" s="53"/>
       <c r="R293" s="54"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="44"/>
       <c r="B294" s="45"/>
       <c r="C294" s="46"/>
@@ -9138,7 +8090,7 @@
       <c r="Q294" s="53"/>
       <c r="R294" s="54"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="29"/>
       <c r="B295" s="30"/>
       <c r="C295" s="31"/>
@@ -9158,7 +8110,7 @@
       <c r="Q295" s="42"/>
       <c r="R295" s="43"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="29"/>
       <c r="B296" s="30"/>
       <c r="C296" s="31"/>
@@ -9178,7 +8130,7 @@
       <c r="Q296" s="42"/>
       <c r="R296" s="43"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" s="29"/>
       <c r="B297" s="30"/>
       <c r="C297" s="31"/>
@@ -9198,7 +8150,7 @@
       <c r="Q297" s="42"/>
       <c r="R297" s="43"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="29"/>
       <c r="B298" s="30"/>
       <c r="C298" s="31"/>
@@ -9218,7 +8170,7 @@
       <c r="Q298" s="42"/>
       <c r="R298" s="43"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="29"/>
       <c r="B299" s="55"/>
       <c r="C299" s="56"/>
@@ -9238,7 +8190,7 @@
       <c r="Q299" s="63"/>
       <c r="R299" s="64"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="29"/>
       <c r="B300" s="65"/>
       <c r="C300" s="66"/>
@@ -9252,16 +8204,16 @@
       <c r="K300" s="71"/>
       <c r="L300" s="71"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B302" s="72"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B303" s="72"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B304" s="72"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
@@ -9271,7 +8223,7 @@
       <c r="Q305"/>
       <c r="R305"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="77"/>
       <c r="C306"/>
@@ -9281,7 +8233,7 @@
       <c r="Q306"/>
       <c r="R306"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" s="77"/>
       <c r="B307" s="77"/>
       <c r="C307"/>
@@ -9291,7 +8243,7 @@
       <c r="Q307"/>
       <c r="R307"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="77"/>
       <c r="B308" s="77"/>
       <c r="C308"/>
@@ -9301,7 +8253,7 @@
       <c r="Q308"/>
       <c r="R308"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" s="77"/>
       <c r="B309" s="77"/>
       <c r="C309"/>
@@ -9311,7 +8263,7 @@
       <c r="Q309"/>
       <c r="R309"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" s="77"/>
       <c r="B310" s="77"/>
       <c r="C310"/>
@@ -9321,7 +8273,7 @@
       <c r="Q310"/>
       <c r="R310"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" s="77"/>
       <c r="B311" s="77"/>
       <c r="C311"/>
@@ -9331,7 +8283,7 @@
       <c r="Q311"/>
       <c r="R311"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" s="77"/>
       <c r="B312" s="77"/>
       <c r="C312"/>
@@ -9341,7 +8293,7 @@
       <c r="Q312"/>
       <c r="R312"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="77"/>
       <c r="B313" s="77"/>
       <c r="C313"/>
@@ -9351,7 +8303,7 @@
       <c r="Q313"/>
       <c r="R313"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" s="77"/>
       <c r="B314" s="77"/>
       <c r="C314"/>
@@ -9361,12 +8313,12 @@
       <c r="Q314"/>
       <c r="R314"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
     </row>
-    <row ht="15.75" r="318" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="318" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="B318" s="102"/>
       <c r="C318" s="103"/>
@@ -9386,7 +8338,7 @@
       <c r="Q318" s="108"/>
       <c r="R318" s="109"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="9"/>
@@ -9406,7 +8358,7 @@
       <c r="Q319" s="16"/>
       <c r="R319" s="17"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="18"/>
       <c r="B320" s="19"/>
       <c r="C320" s="20"/>
@@ -9426,7 +8378,7 @@
       <c r="Q320" s="27"/>
       <c r="R320" s="28"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="29"/>
       <c r="B321" s="30"/>
       <c r="C321" s="31"/>
@@ -9446,7 +8398,7 @@
       <c r="Q321" s="42"/>
       <c r="R321" s="43"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" s="29"/>
       <c r="B322" s="30"/>
       <c r="C322" s="31"/>
@@ -9466,7 +8418,7 @@
       <c r="Q322" s="42"/>
       <c r="R322" s="43"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="29"/>
       <c r="B323" s="30"/>
       <c r="C323" s="31"/>
@@ -9486,7 +8438,7 @@
       <c r="Q323" s="42"/>
       <c r="R323" s="43"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" s="29"/>
       <c r="B324" s="30"/>
       <c r="C324" s="31"/>
@@ -9506,7 +8458,7 @@
       <c r="Q324" s="42"/>
       <c r="R324" s="43"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325" s="29"/>
       <c r="B325" s="30"/>
       <c r="C325" s="31"/>
@@ -9526,7 +8478,7 @@
       <c r="Q325" s="42"/>
       <c r="R325" s="43"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" s="29"/>
       <c r="B326" s="30"/>
       <c r="C326" s="31"/>
@@ -9546,7 +8498,7 @@
       <c r="Q326" s="42"/>
       <c r="R326" s="43"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="29"/>
       <c r="B327" s="30"/>
       <c r="C327" s="31"/>
@@ -9566,7 +8518,7 @@
       <c r="Q327" s="42"/>
       <c r="R327" s="43"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" s="44"/>
       <c r="B328" s="45"/>
       <c r="C328" s="46"/>
@@ -9586,7 +8538,7 @@
       <c r="Q328" s="53"/>
       <c r="R328" s="54"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329" s="44"/>
       <c r="B329" s="45"/>
       <c r="C329" s="46"/>
@@ -9606,7 +8558,7 @@
       <c r="Q329" s="53"/>
       <c r="R329" s="54"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" s="44"/>
       <c r="B330" s="45"/>
       <c r="C330" s="46"/>
@@ -9626,7 +8578,7 @@
       <c r="Q330" s="53"/>
       <c r="R330" s="54"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" s="29"/>
       <c r="B331" s="30"/>
       <c r="C331" s="31"/>
@@ -9646,7 +8598,7 @@
       <c r="Q331" s="42"/>
       <c r="R331" s="43"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" s="29"/>
       <c r="B332" s="30"/>
       <c r="C332" s="31"/>
@@ -9666,7 +8618,7 @@
       <c r="Q332" s="42"/>
       <c r="R332" s="43"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" s="29"/>
       <c r="B333" s="30"/>
       <c r="C333" s="31"/>
@@ -9686,7 +8638,7 @@
       <c r="Q333" s="42"/>
       <c r="R333" s="43"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" s="29"/>
       <c r="B334" s="30"/>
       <c r="C334" s="31"/>
@@ -9706,7 +8658,7 @@
       <c r="Q334" s="42"/>
       <c r="R334" s="43"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" s="29"/>
       <c r="B335" s="30"/>
       <c r="C335" s="31"/>
@@ -9726,7 +8678,7 @@
       <c r="Q335" s="42"/>
       <c r="R335" s="43"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" s="29"/>
       <c r="B336" s="30"/>
       <c r="C336" s="31"/>
@@ -9746,7 +8698,7 @@
       <c r="Q336" s="42"/>
       <c r="R336" s="43"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337" s="44"/>
       <c r="B337" s="45"/>
       <c r="C337" s="46"/>
@@ -9766,7 +8718,7 @@
       <c r="Q337" s="53"/>
       <c r="R337" s="54"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338" s="44"/>
       <c r="B338" s="45"/>
       <c r="C338" s="46"/>
@@ -9786,7 +8738,7 @@
       <c r="Q338" s="53"/>
       <c r="R338" s="54"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" s="44"/>
       <c r="B339" s="45"/>
       <c r="C339" s="46"/>
@@ -9806,7 +8758,7 @@
       <c r="Q339" s="53"/>
       <c r="R339" s="54"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340" s="29"/>
       <c r="B340" s="30"/>
       <c r="C340" s="31"/>
@@ -9826,7 +8778,7 @@
       <c r="Q340" s="42"/>
       <c r="R340" s="43"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" s="29"/>
       <c r="B341" s="30"/>
       <c r="C341" s="31"/>
@@ -9846,7 +8798,7 @@
       <c r="Q341" s="42"/>
       <c r="R341" s="43"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" s="29"/>
       <c r="B342" s="30"/>
       <c r="C342" s="31"/>
@@ -9866,7 +8818,7 @@
       <c r="Q342" s="42"/>
       <c r="R342" s="43"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" s="29"/>
       <c r="B343" s="30"/>
       <c r="C343" s="31"/>
@@ -9886,7 +8838,7 @@
       <c r="Q343" s="42"/>
       <c r="R343" s="43"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" s="29"/>
       <c r="B344" s="55"/>
       <c r="C344" s="56"/>
@@ -9906,7 +8858,7 @@
       <c r="Q344" s="63"/>
       <c r="R344" s="64"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" s="29"/>
       <c r="B345" s="65"/>
       <c r="C345" s="66"/>
@@ -9920,19 +8872,19 @@
       <c r="K345" s="71"/>
       <c r="L345" s="71"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B347" s="72"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B348" s="72"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B349" s="72"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B350" s="72"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9952,7 +8904,7 @@
       <c r="Q351" s="5"/>
       <c r="R351" s="5"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
@@ -9971,7 +8923,7 @@
       <c r="Q352" s="5"/>
       <c r="R352" s="5"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
@@ -9990,7 +8942,7 @@
       <c r="Q353" s="5"/>
       <c r="R353" s="5"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
@@ -10009,7 +8961,7 @@
       <c r="Q354" s="5"/>
       <c r="R354" s="5"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
@@ -10028,7 +8980,7 @@
       <c r="Q355" s="5"/>
       <c r="R355" s="5"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
@@ -10047,7 +8999,7 @@
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
@@ -10066,7 +9018,7 @@
       <c r="Q357" s="5"/>
       <c r="R357" s="5"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
@@ -10085,7 +9037,7 @@
       <c r="Q358" s="5"/>
       <c r="R358" s="5"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
@@ -10104,12 +9056,12 @@
       <c r="Q359" s="5"/>
       <c r="R359" s="5"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
     </row>
-    <row ht="15.75" r="363" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="363" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="B363" s="102"/>
       <c r="C363" s="103"/>
@@ -10129,7 +9081,7 @@
       <c r="Q363" s="108"/>
       <c r="R363" s="109"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="9"/>
@@ -10149,7 +9101,7 @@
       <c r="Q364" s="16"/>
       <c r="R364" s="17"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" s="18"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20"/>
@@ -10169,7 +9121,7 @@
       <c r="Q365" s="27"/>
       <c r="R365" s="28"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366" s="29"/>
       <c r="B366" s="30"/>
       <c r="C366" s="31"/>
@@ -10189,7 +9141,7 @@
       <c r="Q366" s="42"/>
       <c r="R366" s="43"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" s="29"/>
       <c r="B367" s="30"/>
       <c r="C367" s="31"/>
@@ -10209,7 +9161,7 @@
       <c r="Q367" s="42"/>
       <c r="R367" s="43"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" s="29"/>
       <c r="B368" s="30"/>
       <c r="C368" s="31"/>
@@ -10229,7 +9181,7 @@
       <c r="Q368" s="42"/>
       <c r="R368" s="43"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369" s="29"/>
       <c r="B369" s="30"/>
       <c r="C369" s="31"/>
@@ -10249,7 +9201,7 @@
       <c r="Q369" s="42"/>
       <c r="R369" s="43"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370" s="29"/>
       <c r="B370" s="30"/>
       <c r="C370" s="31"/>
@@ -10269,7 +9221,7 @@
       <c r="Q370" s="42"/>
       <c r="R370" s="43"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" s="29"/>
       <c r="B371" s="30"/>
       <c r="C371" s="31"/>
@@ -10289,7 +9241,7 @@
       <c r="Q371" s="42"/>
       <c r="R371" s="43"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" s="29"/>
       <c r="B372" s="30"/>
       <c r="C372" s="31"/>
@@ -10309,7 +9261,7 @@
       <c r="Q372" s="42"/>
       <c r="R372" s="43"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373" s="44"/>
       <c r="B373" s="45"/>
       <c r="C373" s="46"/>
@@ -10329,7 +9281,7 @@
       <c r="Q373" s="53"/>
       <c r="R373" s="54"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374" s="44"/>
       <c r="B374" s="45"/>
       <c r="C374" s="46"/>
@@ -10349,7 +9301,7 @@
       <c r="Q374" s="53"/>
       <c r="R374" s="54"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375" s="44"/>
       <c r="B375" s="45"/>
       <c r="C375" s="46"/>
@@ -10369,7 +9321,7 @@
       <c r="Q375" s="53"/>
       <c r="R375" s="54"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376" s="29"/>
       <c r="B376" s="30"/>
       <c r="C376" s="31"/>
@@ -10389,7 +9341,7 @@
       <c r="Q376" s="42"/>
       <c r="R376" s="43"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" s="29"/>
       <c r="B377" s="30"/>
       <c r="C377" s="31"/>
@@ -10409,7 +9361,7 @@
       <c r="Q377" s="42"/>
       <c r="R377" s="43"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378" s="29"/>
       <c r="B378" s="30"/>
       <c r="C378" s="31"/>
@@ -10429,7 +9381,7 @@
       <c r="Q378" s="42"/>
       <c r="R378" s="43"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379" s="29"/>
       <c r="B379" s="30"/>
       <c r="C379" s="31"/>
@@ -10449,7 +9401,7 @@
       <c r="Q379" s="42"/>
       <c r="R379" s="43"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380" s="29"/>
       <c r="B380" s="30"/>
       <c r="C380" s="31"/>
@@ -10469,7 +9421,7 @@
       <c r="Q380" s="42"/>
       <c r="R380" s="43"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381" s="29"/>
       <c r="B381" s="30"/>
       <c r="C381" s="31"/>
@@ -10489,7 +9441,7 @@
       <c r="Q381" s="42"/>
       <c r="R381" s="43"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382" s="44"/>
       <c r="B382" s="45"/>
       <c r="C382" s="46"/>
@@ -10509,7 +9461,7 @@
       <c r="Q382" s="53"/>
       <c r="R382" s="54"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" s="44"/>
       <c r="B383" s="45"/>
       <c r="C383" s="46"/>
@@ -10529,7 +9481,7 @@
       <c r="Q383" s="53"/>
       <c r="R383" s="54"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384" s="44"/>
       <c r="B384" s="45"/>
       <c r="C384" s="46"/>
@@ -10549,7 +9501,7 @@
       <c r="Q384" s="53"/>
       <c r="R384" s="54"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" s="29"/>
       <c r="B385" s="30"/>
       <c r="C385" s="31"/>
@@ -10569,7 +9521,7 @@
       <c r="Q385" s="42"/>
       <c r="R385" s="43"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" s="29"/>
       <c r="B386" s="30"/>
       <c r="C386" s="31"/>
@@ -10589,7 +9541,7 @@
       <c r="Q386" s="42"/>
       <c r="R386" s="43"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387" s="29"/>
       <c r="B387" s="30"/>
       <c r="C387" s="31"/>
@@ -10609,7 +9561,7 @@
       <c r="Q387" s="42"/>
       <c r="R387" s="43"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" s="29"/>
       <c r="B388" s="30"/>
       <c r="C388" s="31"/>
@@ -10629,7 +9581,7 @@
       <c r="Q388" s="42"/>
       <c r="R388" s="43"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" s="29"/>
       <c r="B389" s="55"/>
       <c r="C389" s="56"/>
@@ -10649,7 +9601,7 @@
       <c r="Q389" s="63"/>
       <c r="R389" s="64"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390" s="29"/>
       <c r="B390" s="65"/>
       <c r="C390" s="66"/>
@@ -10663,16 +9615,16 @@
       <c r="K390" s="71"/>
       <c r="L390" s="71"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B392" s="72"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B393" s="72"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B394" s="72"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
@@ -10682,7 +9634,7 @@
       <c r="Q395"/>
       <c r="R395"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" s="6"/>
       <c r="B396" s="5"/>
       <c r="C396"/>
@@ -10692,7 +9644,7 @@
       <c r="Q396"/>
       <c r="R396"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B397" s="5"/>
       <c r="C397"/>
       <c r="D397"/>
@@ -10701,7 +9653,7 @@
       <c r="Q397"/>
       <c r="R397"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B398" s="5"/>
       <c r="C398"/>
       <c r="D398"/>
@@ -10710,7 +9662,7 @@
       <c r="Q398"/>
       <c r="R398"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B399" s="5"/>
       <c r="C399"/>
       <c r="D399"/>
@@ -10719,7 +9671,7 @@
       <c r="Q399"/>
       <c r="R399"/>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B400" s="5"/>
       <c r="C400"/>
       <c r="D400"/>
@@ -10728,7 +9680,7 @@
       <c r="Q400"/>
       <c r="R400"/>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B401" s="5"/>
       <c r="C401"/>
       <c r="D401"/>
@@ -10737,7 +9689,7 @@
       <c r="Q401"/>
       <c r="R401"/>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B402" s="5"/>
       <c r="C402"/>
       <c r="D402"/>
@@ -10746,7 +9698,7 @@
       <c r="Q402"/>
       <c r="R402"/>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B403" s="5"/>
       <c r="C403"/>
       <c r="D403"/>
@@ -10755,7 +9707,7 @@
       <c r="Q403"/>
       <c r="R403"/>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B404" s="5"/>
       <c r="C404"/>
       <c r="D404"/>
@@ -10764,12 +9716,12 @@
       <c r="Q404"/>
       <c r="R404"/>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
     </row>
-    <row ht="15.75" r="408" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="408" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6"/>
       <c r="B408" s="102"/>
       <c r="C408" s="103"/>
@@ -10789,7 +9741,7 @@
       <c r="Q408" s="108"/>
       <c r="R408" s="109"/>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="9"/>
@@ -10809,7 +9761,7 @@
       <c r="Q409" s="16"/>
       <c r="R409" s="17"/>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A410" s="18"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
@@ -10829,7 +9781,7 @@
       <c r="Q410" s="27"/>
       <c r="R410" s="28"/>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411" s="29"/>
       <c r="B411" s="30"/>
       <c r="C411" s="31"/>
@@ -10849,7 +9801,7 @@
       <c r="Q411" s="42"/>
       <c r="R411" s="43"/>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412" s="29"/>
       <c r="B412" s="30"/>
       <c r="C412" s="31"/>
@@ -10869,7 +9821,7 @@
       <c r="Q412" s="42"/>
       <c r="R412" s="43"/>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413" s="29"/>
       <c r="B413" s="30"/>
       <c r="C413" s="31"/>
@@ -10889,7 +9841,7 @@
       <c r="Q413" s="42"/>
       <c r="R413" s="43"/>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A414" s="29"/>
       <c r="B414" s="30"/>
       <c r="C414" s="31"/>
@@ -10909,7 +9861,7 @@
       <c r="Q414" s="42"/>
       <c r="R414" s="43"/>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A415" s="29"/>
       <c r="B415" s="30"/>
       <c r="C415" s="31"/>
@@ -10929,7 +9881,7 @@
       <c r="Q415" s="42"/>
       <c r="R415" s="43"/>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416" s="29"/>
       <c r="B416" s="30"/>
       <c r="C416" s="31"/>
@@ -10949,7 +9901,7 @@
       <c r="Q416" s="42"/>
       <c r="R416" s="43"/>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417" s="29"/>
       <c r="B417" s="30"/>
       <c r="C417" s="31"/>
@@ -10969,7 +9921,7 @@
       <c r="Q417" s="42"/>
       <c r="R417" s="43"/>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A418" s="44"/>
       <c r="B418" s="45"/>
       <c r="C418" s="46"/>
@@ -10989,7 +9941,7 @@
       <c r="Q418" s="53"/>
       <c r="R418" s="54"/>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A419" s="44"/>
       <c r="B419" s="45"/>
       <c r="C419" s="46"/>
@@ -11009,7 +9961,7 @@
       <c r="Q419" s="53"/>
       <c r="R419" s="54"/>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420" s="44"/>
       <c r="B420" s="45"/>
       <c r="C420" s="46"/>
@@ -11029,7 +9981,7 @@
       <c r="Q420" s="53"/>
       <c r="R420" s="54"/>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421" s="29"/>
       <c r="B421" s="30"/>
       <c r="C421" s="31"/>
@@ -11049,7 +10001,7 @@
       <c r="Q421" s="42"/>
       <c r="R421" s="43"/>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422" s="29"/>
       <c r="B422" s="30"/>
       <c r="C422" s="31"/>
@@ -11069,7 +10021,7 @@
       <c r="Q422" s="42"/>
       <c r="R422" s="43"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A423" s="29"/>
       <c r="B423" s="30"/>
       <c r="C423" s="31"/>
@@ -11089,7 +10041,7 @@
       <c r="Q423" s="42"/>
       <c r="R423" s="43"/>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424" s="29"/>
       <c r="B424" s="30"/>
       <c r="C424" s="31"/>
@@ -11109,7 +10061,7 @@
       <c r="Q424" s="42"/>
       <c r="R424" s="43"/>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425" s="29"/>
       <c r="B425" s="30"/>
       <c r="C425" s="31"/>
@@ -11129,7 +10081,7 @@
       <c r="Q425" s="42"/>
       <c r="R425" s="43"/>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426" s="29"/>
       <c r="B426" s="30"/>
       <c r="C426" s="31"/>
@@ -11149,7 +10101,7 @@
       <c r="Q426" s="42"/>
       <c r="R426" s="43"/>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427" s="44"/>
       <c r="B427" s="45"/>
       <c r="C427" s="46"/>
@@ -11169,7 +10121,7 @@
       <c r="Q427" s="53"/>
       <c r="R427" s="54"/>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A428" s="44"/>
       <c r="B428" s="45"/>
       <c r="C428" s="46"/>
@@ -11189,7 +10141,7 @@
       <c r="Q428" s="53"/>
       <c r="R428" s="54"/>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A429" s="44"/>
       <c r="B429" s="45"/>
       <c r="C429" s="46"/>
@@ -11209,7 +10161,7 @@
       <c r="Q429" s="53"/>
       <c r="R429" s="54"/>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A430" s="29"/>
       <c r="B430" s="30"/>
       <c r="C430" s="31"/>
@@ -11229,7 +10181,7 @@
       <c r="Q430" s="42"/>
       <c r="R430" s="43"/>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431" s="29"/>
       <c r="B431" s="30"/>
       <c r="C431" s="31"/>
@@ -11249,7 +10201,7 @@
       <c r="Q431" s="42"/>
       <c r="R431" s="43"/>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432" s="29"/>
       <c r="B432" s="30"/>
       <c r="C432" s="31"/>
@@ -11269,7 +10221,7 @@
       <c r="Q432" s="42"/>
       <c r="R432" s="43"/>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433" s="29"/>
       <c r="B433" s="30"/>
       <c r="C433" s="31"/>
@@ -11289,7 +10241,7 @@
       <c r="Q433" s="42"/>
       <c r="R433" s="43"/>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434" s="29"/>
       <c r="B434" s="55"/>
       <c r="C434" s="56"/>
@@ -11309,7 +10261,7 @@
       <c r="Q434" s="63"/>
       <c r="R434" s="64"/>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435" s="29"/>
       <c r="B435" s="65"/>
       <c r="C435" s="66"/>
@@ -11323,16 +10275,16 @@
       <c r="K435" s="71"/>
       <c r="L435" s="71"/>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B437" s="72"/>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B438" s="72"/>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B439" s="72"/>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
@@ -11342,7 +10294,7 @@
       <c r="Q440"/>
       <c r="R440"/>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441" s="6"/>
       <c r="B441" s="5"/>
       <c r="C441"/>
@@ -11352,7 +10304,7 @@
       <c r="Q441"/>
       <c r="R441"/>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B442" s="5"/>
       <c r="C442"/>
       <c r="D442"/>
@@ -11361,7 +10313,7 @@
       <c r="Q442"/>
       <c r="R442"/>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B443" s="5"/>
       <c r="C443"/>
       <c r="D443"/>
@@ -11370,7 +10322,7 @@
       <c r="Q443"/>
       <c r="R443"/>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B444" s="5"/>
       <c r="C444"/>
       <c r="D444"/>
@@ -11379,7 +10331,7 @@
       <c r="Q444"/>
       <c r="R444"/>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B445" s="5"/>
       <c r="C445"/>
       <c r="D445"/>
@@ -11388,7 +10340,7 @@
       <c r="Q445"/>
       <c r="R445"/>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B446" s="5"/>
       <c r="C446"/>
       <c r="D446"/>
@@ -11397,7 +10349,7 @@
       <c r="Q446"/>
       <c r="R446"/>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B447" s="5"/>
       <c r="C447"/>
       <c r="D447"/>
@@ -11406,7 +10358,7 @@
       <c r="Q447"/>
       <c r="R447"/>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B448" s="5"/>
       <c r="C448"/>
       <c r="D448"/>
@@ -11415,7 +10367,7 @@
       <c r="Q448"/>
       <c r="R448"/>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B449" s="5"/>
       <c r="C449"/>
       <c r="D449"/>
@@ -11424,12 +10376,12 @@
       <c r="Q449"/>
       <c r="R449"/>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
     </row>
-    <row ht="15.75" r="453" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="453" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="6"/>
       <c r="B453" s="102"/>
       <c r="C453" s="103"/>
@@ -11449,7 +10401,7 @@
       <c r="Q453" s="108"/>
       <c r="R453" s="109"/>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="9"/>
@@ -11469,7 +10421,7 @@
       <c r="Q454" s="16"/>
       <c r="R454" s="17"/>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455" s="18"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
@@ -11489,7 +10441,7 @@
       <c r="Q455" s="27"/>
       <c r="R455" s="28"/>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A456" s="29"/>
       <c r="B456" s="30"/>
       <c r="C456" s="31"/>
@@ -11509,7 +10461,7 @@
       <c r="Q456" s="42"/>
       <c r="R456" s="43"/>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A457" s="29"/>
       <c r="B457" s="30"/>
       <c r="C457" s="31"/>
@@ -11529,7 +10481,7 @@
       <c r="Q457" s="42"/>
       <c r="R457" s="43"/>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A458" s="29"/>
       <c r="B458" s="30"/>
       <c r="C458" s="31"/>
@@ -11549,7 +10501,7 @@
       <c r="Q458" s="42"/>
       <c r="R458" s="43"/>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A459" s="29"/>
       <c r="B459" s="30"/>
       <c r="C459" s="31"/>
@@ -11569,7 +10521,7 @@
       <c r="Q459" s="42"/>
       <c r="R459" s="43"/>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460" s="29"/>
       <c r="B460" s="30"/>
       <c r="C460" s="31"/>
@@ -11589,7 +10541,7 @@
       <c r="Q460" s="42"/>
       <c r="R460" s="43"/>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461" s="29"/>
       <c r="B461" s="30"/>
       <c r="C461" s="31"/>
@@ -11609,7 +10561,7 @@
       <c r="Q461" s="42"/>
       <c r="R461" s="43"/>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462" s="29"/>
       <c r="B462" s="30"/>
       <c r="C462" s="31"/>
@@ -11629,7 +10581,7 @@
       <c r="Q462" s="42"/>
       <c r="R462" s="43"/>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463" s="44"/>
       <c r="B463" s="45"/>
       <c r="C463" s="46"/>
@@ -11649,7 +10601,7 @@
       <c r="Q463" s="53"/>
       <c r="R463" s="54"/>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464" s="44"/>
       <c r="B464" s="45"/>
       <c r="C464" s="46"/>
@@ -11669,7 +10621,7 @@
       <c r="Q464" s="53"/>
       <c r="R464" s="54"/>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A465" s="44"/>
       <c r="B465" s="45"/>
       <c r="C465" s="46"/>
@@ -11689,7 +10641,7 @@
       <c r="Q465" s="53"/>
       <c r="R465" s="54"/>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A466" s="29"/>
       <c r="B466" s="30"/>
       <c r="C466" s="31"/>
@@ -11709,7 +10661,7 @@
       <c r="Q466" s="42"/>
       <c r="R466" s="43"/>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A467" s="29"/>
       <c r="B467" s="30"/>
       <c r="C467" s="31"/>
@@ -11729,7 +10681,7 @@
       <c r="Q467" s="42"/>
       <c r="R467" s="43"/>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A468" s="29"/>
       <c r="B468" s="30"/>
       <c r="C468" s="31"/>
@@ -11749,7 +10701,7 @@
       <c r="Q468" s="42"/>
       <c r="R468" s="43"/>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A469" s="29"/>
       <c r="B469" s="30"/>
       <c r="C469" s="31"/>
@@ -11769,7 +10721,7 @@
       <c r="Q469" s="42"/>
       <c r="R469" s="43"/>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A470" s="29"/>
       <c r="B470" s="30"/>
       <c r="C470" s="31"/>
@@ -11789,7 +10741,7 @@
       <c r="Q470" s="42"/>
       <c r="R470" s="43"/>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A471" s="29"/>
       <c r="B471" s="30"/>
       <c r="C471" s="31"/>
@@ -11809,7 +10761,7 @@
       <c r="Q471" s="42"/>
       <c r="R471" s="43"/>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A472" s="44"/>
       <c r="B472" s="45"/>
       <c r="C472" s="46"/>
@@ -11829,7 +10781,7 @@
       <c r="Q472" s="53"/>
       <c r="R472" s="54"/>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A473" s="44"/>
       <c r="B473" s="45"/>
       <c r="C473" s="46"/>
@@ -11849,7 +10801,7 @@
       <c r="Q473" s="53"/>
       <c r="R473" s="54"/>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A474" s="44"/>
       <c r="B474" s="45"/>
       <c r="C474" s="46"/>
@@ -11869,7 +10821,7 @@
       <c r="Q474" s="53"/>
       <c r="R474" s="54"/>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A475" s="29"/>
       <c r="B475" s="30"/>
       <c r="C475" s="31"/>
@@ -11889,7 +10841,7 @@
       <c r="Q475" s="42"/>
       <c r="R475" s="43"/>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A476" s="29"/>
       <c r="B476" s="30"/>
       <c r="C476" s="31"/>
@@ -11909,7 +10861,7 @@
       <c r="Q476" s="42"/>
       <c r="R476" s="43"/>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A477" s="29"/>
       <c r="B477" s="30"/>
       <c r="C477" s="31"/>
@@ -11929,7 +10881,7 @@
       <c r="Q477" s="42"/>
       <c r="R477" s="43"/>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A478" s="29"/>
       <c r="B478" s="30"/>
       <c r="C478" s="31"/>
@@ -11949,7 +10901,7 @@
       <c r="Q478" s="42"/>
       <c r="R478" s="43"/>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A479" s="29"/>
       <c r="B479" s="55"/>
       <c r="C479" s="56"/>
@@ -11969,7 +10921,7 @@
       <c r="Q479" s="63"/>
       <c r="R479" s="64"/>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A480" s="29"/>
       <c r="B480" s="65"/>
       <c r="C480" s="66"/>
@@ -11983,16 +10935,16 @@
       <c r="K480" s="71"/>
       <c r="L480" s="71"/>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B482" s="72"/>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B483" s="72"/>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B484" s="72"/>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
@@ -12011,7 +10963,7 @@
       <c r="Q485" s="5"/>
       <c r="R485" s="5"/>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12031,7 +10983,7 @@
       <c r="Q486" s="5"/>
       <c r="R486" s="5"/>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
@@ -12050,7 +11002,7 @@
       <c r="Q487" s="5"/>
       <c r="R487" s="5"/>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
@@ -12069,7 +11021,7 @@
       <c r="Q488" s="5"/>
       <c r="R488" s="5"/>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
@@ -12088,7 +11040,7 @@
       <c r="Q489" s="5"/>
       <c r="R489" s="5"/>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
@@ -12107,7 +11059,7 @@
       <c r="Q490" s="5"/>
       <c r="R490" s="5"/>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
@@ -12126,7 +11078,7 @@
       <c r="Q491" s="5"/>
       <c r="R491" s="5"/>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
@@ -12145,7 +11097,7 @@
       <c r="Q492" s="5"/>
       <c r="R492" s="5"/>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
@@ -12164,7 +11116,7 @@
       <c r="Q493" s="5"/>
       <c r="R493" s="5"/>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
@@ -12183,12 +11135,12 @@
       <c r="Q494" s="5"/>
       <c r="R494" s="5"/>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
     </row>
-    <row ht="15.75" r="498" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="498" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A498" s="6"/>
       <c r="B498" s="102"/>
       <c r="C498" s="103"/>
@@ -12208,7 +11160,7 @@
       <c r="Q498" s="108"/>
       <c r="R498" s="109"/>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A499" s="7"/>
       <c r="B499" s="8"/>
       <c r="C499" s="9"/>
@@ -12228,7 +11180,7 @@
       <c r="Q499" s="16"/>
       <c r="R499" s="17"/>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A500" s="18"/>
       <c r="B500" s="19"/>
       <c r="C500" s="20"/>
@@ -12248,7 +11200,7 @@
       <c r="Q500" s="27"/>
       <c r="R500" s="28"/>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A501" s="29"/>
       <c r="B501" s="30"/>
       <c r="C501" s="31"/>
@@ -12268,7 +11220,7 @@
       <c r="Q501" s="42"/>
       <c r="R501" s="43"/>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A502" s="29"/>
       <c r="B502" s="30"/>
       <c r="C502" s="31"/>
@@ -12288,7 +11240,7 @@
       <c r="Q502" s="42"/>
       <c r="R502" s="43"/>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A503" s="29"/>
       <c r="B503" s="30"/>
       <c r="C503" s="31"/>
@@ -12308,7 +11260,7 @@
       <c r="Q503" s="42"/>
       <c r="R503" s="43"/>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A504" s="29"/>
       <c r="B504" s="30"/>
       <c r="C504" s="31"/>
@@ -12328,7 +11280,7 @@
       <c r="Q504" s="42"/>
       <c r="R504" s="43"/>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A505" s="29"/>
       <c r="B505" s="30"/>
       <c r="C505" s="31"/>
@@ -12348,7 +11300,7 @@
       <c r="Q505" s="42"/>
       <c r="R505" s="43"/>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A506" s="29"/>
       <c r="B506" s="30"/>
       <c r="C506" s="31"/>
@@ -12368,7 +11320,7 @@
       <c r="Q506" s="42"/>
       <c r="R506" s="43"/>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A507" s="29"/>
       <c r="B507" s="30"/>
       <c r="C507" s="31"/>
@@ -12388,7 +11340,7 @@
       <c r="Q507" s="42"/>
       <c r="R507" s="43"/>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A508" s="44"/>
       <c r="B508" s="45"/>
       <c r="C508" s="46"/>
@@ -12408,7 +11360,7 @@
       <c r="Q508" s="53"/>
       <c r="R508" s="54"/>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A509" s="44"/>
       <c r="B509" s="45"/>
       <c r="C509" s="46"/>
@@ -12428,7 +11380,7 @@
       <c r="Q509" s="53"/>
       <c r="R509" s="54"/>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A510" s="44"/>
       <c r="B510" s="45"/>
       <c r="C510" s="46"/>
@@ -12448,7 +11400,7 @@
       <c r="Q510" s="53"/>
       <c r="R510" s="54"/>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A511" s="29"/>
       <c r="B511" s="30"/>
       <c r="C511" s="31"/>
@@ -12468,7 +11420,7 @@
       <c r="Q511" s="42"/>
       <c r="R511" s="43"/>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A512" s="29"/>
       <c r="B512" s="30"/>
       <c r="C512" s="31"/>
@@ -12488,7 +11440,7 @@
       <c r="Q512" s="42"/>
       <c r="R512" s="43"/>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A513" s="29"/>
       <c r="B513" s="30"/>
       <c r="C513" s="31"/>
@@ -12508,7 +11460,7 @@
       <c r="Q513" s="42"/>
       <c r="R513" s="43"/>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A514" s="29"/>
       <c r="B514" s="30"/>
       <c r="C514" s="31"/>
@@ -12528,7 +11480,7 @@
       <c r="Q514" s="42"/>
       <c r="R514" s="43"/>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A515" s="29"/>
       <c r="B515" s="30"/>
       <c r="C515" s="31"/>
@@ -12548,7 +11500,7 @@
       <c r="Q515" s="42"/>
       <c r="R515" s="43"/>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A516" s="29"/>
       <c r="B516" s="30"/>
       <c r="C516" s="31"/>
@@ -12568,7 +11520,7 @@
       <c r="Q516" s="42"/>
       <c r="R516" s="43"/>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A517" s="44"/>
       <c r="B517" s="45"/>
       <c r="C517" s="46"/>
@@ -12588,7 +11540,7 @@
       <c r="Q517" s="53"/>
       <c r="R517" s="54"/>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A518" s="44"/>
       <c r="B518" s="45"/>
       <c r="C518" s="46"/>
@@ -12608,7 +11560,7 @@
       <c r="Q518" s="53"/>
       <c r="R518" s="54"/>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A519" s="44"/>
       <c r="B519" s="45"/>
       <c r="C519" s="46"/>
@@ -12628,7 +11580,7 @@
       <c r="Q519" s="53"/>
       <c r="R519" s="54"/>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A520" s="29"/>
       <c r="B520" s="30"/>
       <c r="C520" s="31"/>
@@ -12648,7 +11600,7 @@
       <c r="Q520" s="42"/>
       <c r="R520" s="43"/>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A521" s="29"/>
       <c r="B521" s="30"/>
       <c r="C521" s="31"/>
@@ -12668,7 +11620,7 @@
       <c r="Q521" s="42"/>
       <c r="R521" s="43"/>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A522" s="29"/>
       <c r="B522" s="30"/>
       <c r="C522" s="31"/>
@@ -12688,7 +11640,7 @@
       <c r="Q522" s="42"/>
       <c r="R522" s="43"/>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A523" s="29"/>
       <c r="B523" s="30"/>
       <c r="C523" s="31"/>
@@ -12708,7 +11660,7 @@
       <c r="Q523" s="42"/>
       <c r="R523" s="43"/>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A524" s="29"/>
       <c r="B524" s="55"/>
       <c r="C524" s="56"/>
@@ -12728,7 +11680,7 @@
       <c r="Q524" s="63"/>
       <c r="R524" s="64"/>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A525" s="29"/>
       <c r="B525" s="65"/>
       <c r="C525" s="66"/>
@@ -12742,19 +11694,19 @@
       <c r="K525" s="71"/>
       <c r="L525" s="71"/>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B527" s="72"/>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B528" s="72"/>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B529" s="72"/>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B530" s="72"/>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -12774,7 +11726,7 @@
       <c r="Q531" s="5"/>
       <c r="R531" s="5"/>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
@@ -12793,7 +11745,7 @@
       <c r="Q532" s="5"/>
       <c r="R532" s="5"/>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
@@ -12812,7 +11764,7 @@
       <c r="Q533" s="5"/>
       <c r="R533" s="5"/>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
@@ -12831,7 +11783,7 @@
       <c r="Q534" s="5"/>
       <c r="R534" s="5"/>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
@@ -12850,7 +11802,7 @@
       <c r="Q535" s="5"/>
       <c r="R535" s="5"/>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
@@ -12869,7 +11821,7 @@
       <c r="Q536" s="5"/>
       <c r="R536" s="5"/>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
@@ -12888,7 +11840,7 @@
       <c r="Q537" s="5"/>
       <c r="R537" s="5"/>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
@@ -12907,7 +11859,7 @@
       <c r="Q538" s="5"/>
       <c r="R538" s="5"/>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
@@ -12926,12 +11878,12 @@
       <c r="Q539" s="5"/>
       <c r="R539" s="5"/>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
     </row>
-    <row ht="15.75" r="543" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="543" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="6"/>
       <c r="B543" s="102"/>
       <c r="C543" s="103"/>
@@ -12951,7 +11903,7 @@
       <c r="Q543" s="108"/>
       <c r="R543" s="109"/>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A544" s="7"/>
       <c r="B544" s="8"/>
       <c r="C544" s="9"/>
@@ -12971,7 +11923,7 @@
       <c r="Q544" s="16"/>
       <c r="R544" s="17"/>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A545" s="18"/>
       <c r="B545" s="19"/>
       <c r="C545" s="20"/>
@@ -12991,7 +11943,7 @@
       <c r="Q545" s="27"/>
       <c r="R545" s="28"/>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A546" s="29"/>
       <c r="B546" s="30"/>
       <c r="C546" s="31"/>
@@ -13011,7 +11963,7 @@
       <c r="Q546" s="42"/>
       <c r="R546" s="43"/>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A547" s="29"/>
       <c r="B547" s="30"/>
       <c r="C547" s="31"/>
@@ -13031,7 +11983,7 @@
       <c r="Q547" s="42"/>
       <c r="R547" s="43"/>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A548" s="29"/>
       <c r="B548" s="30"/>
       <c r="C548" s="31"/>
@@ -13051,7 +12003,7 @@
       <c r="Q548" s="42"/>
       <c r="R548" s="43"/>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A549" s="29"/>
       <c r="B549" s="30"/>
       <c r="C549" s="31"/>
@@ -13071,7 +12023,7 @@
       <c r="Q549" s="42"/>
       <c r="R549" s="43"/>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A550" s="29"/>
       <c r="B550" s="30"/>
       <c r="C550" s="31"/>
@@ -13091,7 +12043,7 @@
       <c r="Q550" s="42"/>
       <c r="R550" s="43"/>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A551" s="29"/>
       <c r="B551" s="30"/>
       <c r="C551" s="31"/>
@@ -13111,7 +12063,7 @@
       <c r="Q551" s="42"/>
       <c r="R551" s="43"/>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A552" s="29"/>
       <c r="B552" s="30"/>
       <c r="C552" s="31"/>
@@ -13131,7 +12083,7 @@
       <c r="Q552" s="42"/>
       <c r="R552" s="43"/>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A553" s="44"/>
       <c r="B553" s="45"/>
       <c r="C553" s="46"/>
@@ -13151,7 +12103,7 @@
       <c r="Q553" s="53"/>
       <c r="R553" s="54"/>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A554" s="44"/>
       <c r="B554" s="45"/>
       <c r="C554" s="46"/>
@@ -13171,7 +12123,7 @@
       <c r="Q554" s="53"/>
       <c r="R554" s="54"/>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A555" s="44"/>
       <c r="B555" s="45"/>
       <c r="C555" s="46"/>
@@ -13191,7 +12143,7 @@
       <c r="Q555" s="53"/>
       <c r="R555" s="54"/>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A556" s="29"/>
       <c r="B556" s="30"/>
       <c r="C556" s="31"/>
@@ -13211,7 +12163,7 @@
       <c r="Q556" s="42"/>
       <c r="R556" s="43"/>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A557" s="29"/>
       <c r="B557" s="30"/>
       <c r="C557" s="31"/>
@@ -13231,7 +12183,7 @@
       <c r="Q557" s="42"/>
       <c r="R557" s="43"/>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A558" s="29"/>
       <c r="B558" s="30"/>
       <c r="C558" s="31"/>
@@ -13251,7 +12203,7 @@
       <c r="Q558" s="42"/>
       <c r="R558" s="43"/>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A559" s="29"/>
       <c r="B559" s="30"/>
       <c r="C559" s="31"/>
@@ -13271,7 +12223,7 @@
       <c r="Q559" s="42"/>
       <c r="R559" s="43"/>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A560" s="29"/>
       <c r="B560" s="30"/>
       <c r="C560" s="31"/>
@@ -13291,7 +12243,7 @@
       <c r="Q560" s="42"/>
       <c r="R560" s="43"/>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A561" s="29"/>
       <c r="B561" s="30"/>
       <c r="C561" s="31"/>
@@ -13311,7 +12263,7 @@
       <c r="Q561" s="42"/>
       <c r="R561" s="43"/>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A562" s="44"/>
       <c r="B562" s="45"/>
       <c r="C562" s="46"/>
@@ -13331,7 +12283,7 @@
       <c r="Q562" s="53"/>
       <c r="R562" s="54"/>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A563" s="44"/>
       <c r="B563" s="45"/>
       <c r="C563" s="46"/>
@@ -13351,7 +12303,7 @@
       <c r="Q563" s="53"/>
       <c r="R563" s="54"/>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A564" s="44"/>
       <c r="B564" s="45"/>
       <c r="C564" s="46"/>
@@ -13371,7 +12323,7 @@
       <c r="Q564" s="53"/>
       <c r="R564" s="54"/>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A565" s="29"/>
       <c r="B565" s="30"/>
       <c r="C565" s="31"/>
@@ -13391,7 +12343,7 @@
       <c r="Q565" s="42"/>
       <c r="R565" s="43"/>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A566" s="29"/>
       <c r="B566" s="30"/>
       <c r="C566" s="31"/>
@@ -13411,7 +12363,7 @@
       <c r="Q566" s="42"/>
       <c r="R566" s="43"/>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567" s="29"/>
       <c r="B567" s="30"/>
       <c r="C567" s="31"/>
@@ -13431,7 +12383,7 @@
       <c r="Q567" s="42"/>
       <c r="R567" s="43"/>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A568" s="29"/>
       <c r="B568" s="30"/>
       <c r="C568" s="31"/>
@@ -13451,7 +12403,7 @@
       <c r="Q568" s="42"/>
       <c r="R568" s="43"/>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A569" s="29"/>
       <c r="B569" s="55"/>
       <c r="C569" s="56"/>
@@ -13471,7 +12423,7 @@
       <c r="Q569" s="63"/>
       <c r="R569" s="64"/>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A570" s="29"/>
       <c r="B570" s="65"/>
       <c r="C570" s="66"/>
@@ -13485,16 +12437,16 @@
       <c r="K570" s="71"/>
       <c r="L570" s="71"/>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B572" s="72"/>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B573" s="72"/>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B574" s="72"/>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A575"/>
       <c r="B575"/>
       <c r="C575"/>
@@ -13504,7 +12456,7 @@
       <c r="Q575"/>
       <c r="R575"/>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="5"/>
       <c r="C576"/>
@@ -13514,7 +12466,7 @@
       <c r="Q576"/>
       <c r="R576"/>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B577" s="5"/>
       <c r="C577"/>
       <c r="D577"/>
@@ -13523,7 +12475,7 @@
       <c r="Q577"/>
       <c r="R577"/>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B578" s="5"/>
       <c r="C578"/>
       <c r="D578"/>
@@ -13532,7 +12484,7 @@
       <c r="Q578"/>
       <c r="R578"/>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B579" s="5"/>
       <c r="C579"/>
       <c r="D579"/>
@@ -13541,7 +12493,7 @@
       <c r="Q579"/>
       <c r="R579"/>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B580" s="5"/>
       <c r="C580"/>
       <c r="D580"/>
@@ -13550,7 +12502,7 @@
       <c r="Q580"/>
       <c r="R580"/>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B581" s="5"/>
       <c r="C581"/>
       <c r="D581"/>
@@ -13559,7 +12511,7 @@
       <c r="Q581"/>
       <c r="R581"/>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B582" s="5"/>
       <c r="C582"/>
       <c r="D582"/>
@@ -13568,7 +12520,7 @@
       <c r="Q582"/>
       <c r="R582"/>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B583" s="5"/>
       <c r="C583"/>
       <c r="D583"/>
@@ -13577,7 +12529,7 @@
       <c r="Q583"/>
       <c r="R583"/>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B584" s="5"/>
       <c r="C584"/>
       <c r="D584"/>
@@ -13586,12 +12538,12 @@
       <c r="Q584"/>
       <c r="R584"/>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
     </row>
-    <row ht="15.75" r="588" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="588" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="6"/>
       <c r="B588" s="102"/>
       <c r="C588" s="103"/>
@@ -13611,7 +12563,7 @@
       <c r="Q588" s="108"/>
       <c r="R588" s="109"/>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A589" s="7"/>
       <c r="B589" s="8"/>
       <c r="C589" s="9"/>
@@ -13631,7 +12583,7 @@
       <c r="Q589" s="16"/>
       <c r="R589" s="17"/>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A590" s="18"/>
       <c r="B590" s="19"/>
       <c r="C590" s="20"/>
@@ -13651,7 +12603,7 @@
       <c r="Q590" s="27"/>
       <c r="R590" s="28"/>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A591" s="29"/>
       <c r="B591" s="30"/>
       <c r="C591" s="31"/>
@@ -13671,7 +12623,7 @@
       <c r="Q591" s="42"/>
       <c r="R591" s="43"/>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A592" s="29"/>
       <c r="B592" s="30"/>
       <c r="C592" s="31"/>
@@ -13691,7 +12643,7 @@
       <c r="Q592" s="42"/>
       <c r="R592" s="43"/>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A593" s="29"/>
       <c r="B593" s="30"/>
       <c r="C593" s="31"/>
@@ -13711,7 +12663,7 @@
       <c r="Q593" s="42"/>
       <c r="R593" s="43"/>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A594" s="29"/>
       <c r="B594" s="30"/>
       <c r="C594" s="31"/>
@@ -13731,7 +12683,7 @@
       <c r="Q594" s="42"/>
       <c r="R594" s="43"/>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A595" s="29"/>
       <c r="B595" s="30"/>
       <c r="C595" s="31"/>
@@ -13751,7 +12703,7 @@
       <c r="Q595" s="42"/>
       <c r="R595" s="43"/>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A596" s="29"/>
       <c r="B596" s="30"/>
       <c r="C596" s="31"/>
@@ -13771,7 +12723,7 @@
       <c r="Q596" s="42"/>
       <c r="R596" s="43"/>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A597" s="29"/>
       <c r="B597" s="30"/>
       <c r="C597" s="31"/>
@@ -13791,7 +12743,7 @@
       <c r="Q597" s="42"/>
       <c r="R597" s="43"/>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A598" s="44"/>
       <c r="B598" s="45"/>
       <c r="C598" s="46"/>
@@ -13811,7 +12763,7 @@
       <c r="Q598" s="53"/>
       <c r="R598" s="54"/>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A599" s="44"/>
       <c r="B599" s="45"/>
       <c r="C599" s="46"/>
@@ -13831,7 +12783,7 @@
       <c r="Q599" s="53"/>
       <c r="R599" s="54"/>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A600" s="44"/>
       <c r="B600" s="45"/>
       <c r="C600" s="46"/>
@@ -13851,7 +12803,7 @@
       <c r="Q600" s="53"/>
       <c r="R600" s="54"/>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A601" s="29"/>
       <c r="B601" s="30"/>
       <c r="C601" s="31"/>
@@ -13871,7 +12823,7 @@
       <c r="Q601" s="42"/>
       <c r="R601" s="43"/>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A602" s="29"/>
       <c r="B602" s="30"/>
       <c r="C602" s="31"/>
@@ -13891,7 +12843,7 @@
       <c r="Q602" s="42"/>
       <c r="R602" s="43"/>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A603" s="29"/>
       <c r="B603" s="30"/>
       <c r="C603" s="31"/>
@@ -13911,7 +12863,7 @@
       <c r="Q603" s="42"/>
       <c r="R603" s="43"/>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A604" s="29"/>
       <c r="B604" s="30"/>
       <c r="C604" s="31"/>
@@ -13931,7 +12883,7 @@
       <c r="Q604" s="42"/>
       <c r="R604" s="43"/>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A605" s="29"/>
       <c r="B605" s="30"/>
       <c r="C605" s="31"/>
@@ -13951,7 +12903,7 @@
       <c r="Q605" s="42"/>
       <c r="R605" s="43"/>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A606" s="29"/>
       <c r="B606" s="30"/>
       <c r="C606" s="31"/>
@@ -13971,7 +12923,7 @@
       <c r="Q606" s="42"/>
       <c r="R606" s="43"/>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A607" s="44"/>
       <c r="B607" s="45"/>
       <c r="C607" s="46"/>
@@ -13991,7 +12943,7 @@
       <c r="Q607" s="53"/>
       <c r="R607" s="54"/>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A608" s="44"/>
       <c r="B608" s="45"/>
       <c r="C608" s="46"/>
@@ -14011,7 +12963,7 @@
       <c r="Q608" s="53"/>
       <c r="R608" s="54"/>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A609" s="44"/>
       <c r="B609" s="45"/>
       <c r="C609" s="46"/>
@@ -14031,7 +12983,7 @@
       <c r="Q609" s="53"/>
       <c r="R609" s="54"/>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A610" s="29"/>
       <c r="B610" s="30"/>
       <c r="C610" s="31"/>
@@ -14051,7 +13003,7 @@
       <c r="Q610" s="42"/>
       <c r="R610" s="43"/>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A611" s="29"/>
       <c r="B611" s="30"/>
       <c r="C611" s="31"/>
@@ -14071,7 +13023,7 @@
       <c r="Q611" s="42"/>
       <c r="R611" s="43"/>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A612" s="29"/>
       <c r="B612" s="30"/>
       <c r="C612" s="31"/>
@@ -14091,7 +13043,7 @@
       <c r="Q612" s="42"/>
       <c r="R612" s="43"/>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A613" s="29"/>
       <c r="B613" s="30"/>
       <c r="C613" s="31"/>
@@ -14111,7 +13063,7 @@
       <c r="Q613" s="42"/>
       <c r="R613" s="43"/>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A614" s="29"/>
       <c r="B614" s="55"/>
       <c r="C614" s="56"/>
@@ -14131,7 +13083,7 @@
       <c r="Q614" s="63"/>
       <c r="R614" s="64"/>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A615" s="29"/>
       <c r="B615" s="65"/>
       <c r="C615" s="66"/>
@@ -14145,16 +13097,16 @@
       <c r="K615" s="71"/>
       <c r="L615" s="71"/>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B617" s="72"/>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B618" s="72"/>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B619" s="72"/>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A620"/>
       <c r="B620"/>
       <c r="C620"/>
@@ -14164,7 +13116,7 @@
       <c r="Q620"/>
       <c r="R620"/>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
       <c r="B621" s="5"/>
       <c r="C621"/>
@@ -14174,7 +13126,7 @@
       <c r="Q621"/>
       <c r="R621"/>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B622" s="5"/>
       <c r="C622"/>
       <c r="D622"/>
@@ -14183,7 +13135,7 @@
       <c r="Q622"/>
       <c r="R622"/>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B623" s="5"/>
       <c r="C623"/>
       <c r="D623"/>
@@ -14192,7 +13144,7 @@
       <c r="Q623"/>
       <c r="R623"/>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B624" s="5"/>
       <c r="C624"/>
       <c r="D624"/>
@@ -14201,7 +13153,7 @@
       <c r="Q624"/>
       <c r="R624"/>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B625" s="5"/>
       <c r="C625"/>
       <c r="D625"/>
@@ -14210,7 +13162,7 @@
       <c r="Q625"/>
       <c r="R625"/>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B626" s="5"/>
       <c r="C626"/>
       <c r="D626"/>
@@ -14219,7 +13171,7 @@
       <c r="Q626"/>
       <c r="R626"/>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B627" s="5"/>
       <c r="C627"/>
       <c r="D627"/>
@@ -14228,7 +13180,7 @@
       <c r="Q627"/>
       <c r="R627"/>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B628" s="5"/>
       <c r="C628"/>
       <c r="D628"/>
@@ -14237,7 +13189,7 @@
       <c r="Q628"/>
       <c r="R628"/>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B629" s="5"/>
       <c r="C629"/>
       <c r="D629"/>
@@ -14246,12 +13198,12 @@
       <c r="Q629"/>
       <c r="R629"/>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
     </row>
-    <row ht="15.75" r="633" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="633" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="6"/>
       <c r="B633" s="102"/>
       <c r="C633" s="103"/>
@@ -14271,7 +13223,7 @@
       <c r="Q633" s="108"/>
       <c r="R633" s="109"/>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A634" s="7"/>
       <c r="B634" s="8"/>
       <c r="C634" s="9"/>
@@ -14291,7 +13243,7 @@
       <c r="Q634" s="16"/>
       <c r="R634" s="17"/>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A635" s="18"/>
       <c r="B635" s="19"/>
       <c r="C635" s="20"/>
@@ -14311,7 +13263,7 @@
       <c r="Q635" s="27"/>
       <c r="R635" s="28"/>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A636" s="29"/>
       <c r="B636" s="30"/>
       <c r="C636" s="31"/>
@@ -14331,7 +13283,7 @@
       <c r="Q636" s="42"/>
       <c r="R636" s="43"/>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A637" s="29"/>
       <c r="B637" s="30"/>
       <c r="C637" s="31"/>
@@ -14351,7 +13303,7 @@
       <c r="Q637" s="42"/>
       <c r="R637" s="43"/>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A638" s="29"/>
       <c r="B638" s="30"/>
       <c r="C638" s="31"/>
@@ -14371,7 +13323,7 @@
       <c r="Q638" s="42"/>
       <c r="R638" s="43"/>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A639" s="29"/>
       <c r="B639" s="30"/>
       <c r="C639" s="31"/>
@@ -14391,7 +13343,7 @@
       <c r="Q639" s="42"/>
       <c r="R639" s="43"/>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A640" s="29"/>
       <c r="B640" s="30"/>
       <c r="C640" s="31"/>
@@ -14411,7 +13363,7 @@
       <c r="Q640" s="42"/>
       <c r="R640" s="43"/>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A641" s="29"/>
       <c r="B641" s="30"/>
       <c r="C641" s="31"/>
@@ -14431,7 +13383,7 @@
       <c r="Q641" s="42"/>
       <c r="R641" s="43"/>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A642" s="29"/>
       <c r="B642" s="30"/>
       <c r="C642" s="31"/>
@@ -14451,7 +13403,7 @@
       <c r="Q642" s="42"/>
       <c r="R642" s="43"/>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A643" s="44"/>
       <c r="B643" s="45"/>
       <c r="C643" s="46"/>
@@ -14471,7 +13423,7 @@
       <c r="Q643" s="53"/>
       <c r="R643" s="54"/>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A644" s="44"/>
       <c r="B644" s="45"/>
       <c r="C644" s="46"/>
@@ -14491,7 +13443,7 @@
       <c r="Q644" s="53"/>
       <c r="R644" s="54"/>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A645" s="44"/>
       <c r="B645" s="45"/>
       <c r="C645" s="46"/>
@@ -14511,7 +13463,7 @@
       <c r="Q645" s="53"/>
       <c r="R645" s="54"/>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A646" s="29"/>
       <c r="B646" s="30"/>
       <c r="C646" s="31"/>
@@ -14531,7 +13483,7 @@
       <c r="Q646" s="42"/>
       <c r="R646" s="43"/>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A647" s="29"/>
       <c r="B647" s="30"/>
       <c r="C647" s="31"/>
@@ -14551,7 +13503,7 @@
       <c r="Q647" s="42"/>
       <c r="R647" s="43"/>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A648" s="29"/>
       <c r="B648" s="30"/>
       <c r="C648" s="31"/>
@@ -14571,7 +13523,7 @@
       <c r="Q648" s="42"/>
       <c r="R648" s="43"/>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A649" s="29"/>
       <c r="B649" s="30"/>
       <c r="C649" s="31"/>
@@ -14591,7 +13543,7 @@
       <c r="Q649" s="42"/>
       <c r="R649" s="43"/>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A650" s="29"/>
       <c r="B650" s="30"/>
       <c r="C650" s="31"/>
@@ -14611,7 +13563,7 @@
       <c r="Q650" s="42"/>
       <c r="R650" s="43"/>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A651" s="29"/>
       <c r="B651" s="30"/>
       <c r="C651" s="31"/>
@@ -14631,7 +13583,7 @@
       <c r="Q651" s="42"/>
       <c r="R651" s="43"/>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A652" s="44"/>
       <c r="B652" s="45"/>
       <c r="C652" s="46"/>
@@ -14651,7 +13603,7 @@
       <c r="Q652" s="53"/>
       <c r="R652" s="54"/>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A653" s="44"/>
       <c r="B653" s="45"/>
       <c r="C653" s="46"/>
@@ -14671,7 +13623,7 @@
       <c r="Q653" s="53"/>
       <c r="R653" s="54"/>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A654" s="44"/>
       <c r="B654" s="45"/>
       <c r="C654" s="46"/>
@@ -14691,7 +13643,7 @@
       <c r="Q654" s="53"/>
       <c r="R654" s="54"/>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A655" s="29"/>
       <c r="B655" s="30"/>
       <c r="C655" s="31"/>
@@ -14711,7 +13663,7 @@
       <c r="Q655" s="42"/>
       <c r="R655" s="43"/>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A656" s="29"/>
       <c r="B656" s="30"/>
       <c r="C656" s="31"/>
@@ -14731,7 +13683,7 @@
       <c r="Q656" s="42"/>
       <c r="R656" s="43"/>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A657" s="29"/>
       <c r="B657" s="30"/>
       <c r="C657" s="31"/>
@@ -14751,7 +13703,7 @@
       <c r="Q657" s="42"/>
       <c r="R657" s="43"/>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A658" s="29"/>
       <c r="B658" s="30"/>
       <c r="C658" s="31"/>
@@ -14771,7 +13723,7 @@
       <c r="Q658" s="42"/>
       <c r="R658" s="43"/>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A659" s="29"/>
       <c r="B659" s="55"/>
       <c r="C659" s="56"/>
@@ -14791,7 +13743,7 @@
       <c r="Q659" s="63"/>
       <c r="R659" s="64"/>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A660" s="29"/>
       <c r="B660" s="65"/>
       <c r="C660" s="66"/>
@@ -14805,16 +13757,16 @@
       <c r="K660" s="71"/>
       <c r="L660" s="71"/>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B662" s="72"/>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B663" s="72"/>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B664" s="72"/>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A665"/>
       <c r="B665"/>
       <c r="C665"/>
@@ -14824,7 +13776,7 @@
       <c r="Q665"/>
       <c r="R665"/>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
       <c r="B666" s="5"/>
       <c r="C666"/>
@@ -14834,7 +13786,7 @@
       <c r="Q666"/>
       <c r="R666"/>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B667" s="5"/>
       <c r="C667"/>
       <c r="D667"/>
@@ -14843,7 +13795,7 @@
       <c r="Q667"/>
       <c r="R667"/>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B668" s="5"/>
       <c r="C668"/>
       <c r="D668"/>
@@ -14852,7 +13804,7 @@
       <c r="Q668"/>
       <c r="R668"/>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B669" s="5"/>
       <c r="C669"/>
       <c r="D669"/>
@@ -14861,7 +13813,7 @@
       <c r="Q669"/>
       <c r="R669"/>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B670" s="5"/>
       <c r="C670"/>
       <c r="D670"/>
@@ -14870,7 +13822,7 @@
       <c r="Q670"/>
       <c r="R670"/>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B671" s="5"/>
       <c r="C671"/>
       <c r="D671"/>
@@ -14879,7 +13831,7 @@
       <c r="Q671"/>
       <c r="R671"/>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B672" s="5"/>
       <c r="C672"/>
       <c r="D672"/>
@@ -14888,7 +13840,7 @@
       <c r="Q672"/>
       <c r="R672"/>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B673" s="5"/>
       <c r="C673"/>
       <c r="D673"/>
@@ -14897,7 +13849,7 @@
       <c r="Q673"/>
       <c r="R673"/>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B674" s="5"/>
       <c r="C674"/>
       <c r="D674"/>
@@ -14906,12 +13858,12 @@
       <c r="Q674"/>
       <c r="R674"/>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
     </row>
-    <row ht="15.75" r="678" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="678" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="6"/>
       <c r="B678" s="102"/>
       <c r="C678" s="103"/>
@@ -14931,7 +13883,7 @@
       <c r="Q678" s="108"/>
       <c r="R678" s="109"/>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A679" s="7"/>
       <c r="B679" s="8"/>
       <c r="C679" s="9"/>
@@ -14951,7 +13903,7 @@
       <c r="Q679" s="16"/>
       <c r="R679" s="17"/>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A680" s="18"/>
       <c r="B680" s="19"/>
       <c r="C680" s="20"/>
@@ -14971,7 +13923,7 @@
       <c r="Q680" s="27"/>
       <c r="R680" s="28"/>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A681" s="29"/>
       <c r="B681" s="30"/>
       <c r="C681" s="31"/>
@@ -14991,7 +13943,7 @@
       <c r="Q681" s="42"/>
       <c r="R681" s="43"/>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A682" s="29"/>
       <c r="B682" s="30"/>
       <c r="C682" s="31"/>
@@ -15011,7 +13963,7 @@
       <c r="Q682" s="42"/>
       <c r="R682" s="43"/>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A683" s="29"/>
       <c r="B683" s="30"/>
       <c r="C683" s="31"/>
@@ -15031,7 +13983,7 @@
       <c r="Q683" s="42"/>
       <c r="R683" s="43"/>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A684" s="29"/>
       <c r="B684" s="30"/>
       <c r="C684" s="31"/>
@@ -15051,7 +14003,7 @@
       <c r="Q684" s="42"/>
       <c r="R684" s="43"/>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A685" s="29"/>
       <c r="B685" s="30"/>
       <c r="C685" s="31"/>
@@ -15071,7 +14023,7 @@
       <c r="Q685" s="42"/>
       <c r="R685" s="43"/>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A686" s="29"/>
       <c r="B686" s="30"/>
       <c r="C686" s="31"/>
@@ -15091,7 +14043,7 @@
       <c r="Q686" s="42"/>
       <c r="R686" s="43"/>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A687" s="29"/>
       <c r="B687" s="30"/>
       <c r="C687" s="31"/>
@@ -15111,7 +14063,7 @@
       <c r="Q687" s="42"/>
       <c r="R687" s="43"/>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A688" s="44"/>
       <c r="B688" s="45"/>
       <c r="C688" s="46"/>
@@ -15131,7 +14083,7 @@
       <c r="Q688" s="53"/>
       <c r="R688" s="54"/>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A689" s="44"/>
       <c r="B689" s="45"/>
       <c r="C689" s="46"/>
@@ -15151,7 +14103,7 @@
       <c r="Q689" s="53"/>
       <c r="R689" s="54"/>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A690" s="44"/>
       <c r="B690" s="45"/>
       <c r="C690" s="46"/>
@@ -15171,7 +14123,7 @@
       <c r="Q690" s="53"/>
       <c r="R690" s="54"/>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A691" s="29"/>
       <c r="B691" s="30"/>
       <c r="C691" s="31"/>
@@ -15191,7 +14143,7 @@
       <c r="Q691" s="42"/>
       <c r="R691" s="43"/>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A692" s="29"/>
       <c r="B692" s="30"/>
       <c r="C692" s="31"/>
@@ -15211,7 +14163,7 @@
       <c r="Q692" s="42"/>
       <c r="R692" s="43"/>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A693" s="29"/>
       <c r="B693" s="30"/>
       <c r="C693" s="31"/>
@@ -15231,7 +14183,7 @@
       <c r="Q693" s="42"/>
       <c r="R693" s="43"/>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A694" s="29"/>
       <c r="B694" s="30"/>
       <c r="C694" s="31"/>
@@ -15251,7 +14203,7 @@
       <c r="Q694" s="42"/>
       <c r="R694" s="43"/>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A695" s="29"/>
       <c r="B695" s="30"/>
       <c r="C695" s="31"/>
@@ -15271,7 +14223,7 @@
       <c r="Q695" s="42"/>
       <c r="R695" s="43"/>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A696" s="29"/>
       <c r="B696" s="30"/>
       <c r="C696" s="31"/>
@@ -15291,7 +14243,7 @@
       <c r="Q696" s="42"/>
       <c r="R696" s="43"/>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A697" s="44"/>
       <c r="B697" s="45"/>
       <c r="C697" s="46"/>
@@ -15311,7 +14263,7 @@
       <c r="Q697" s="53"/>
       <c r="R697" s="54"/>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A698" s="44"/>
       <c r="B698" s="45"/>
       <c r="C698" s="46"/>
@@ -15331,7 +14283,7 @@
       <c r="Q698" s="53"/>
       <c r="R698" s="54"/>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A699" s="44"/>
       <c r="B699" s="45"/>
       <c r="C699" s="46"/>
@@ -15351,7 +14303,7 @@
       <c r="Q699" s="53"/>
       <c r="R699" s="54"/>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A700" s="29"/>
       <c r="B700" s="30"/>
       <c r="C700" s="31"/>
@@ -15371,7 +14323,7 @@
       <c r="Q700" s="42"/>
       <c r="R700" s="43"/>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A701" s="29"/>
       <c r="B701" s="30"/>
       <c r="C701" s="31"/>
@@ -15391,7 +14343,7 @@
       <c r="Q701" s="42"/>
       <c r="R701" s="43"/>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A702" s="29"/>
       <c r="B702" s="30"/>
       <c r="C702" s="31"/>
@@ -15411,7 +14363,7 @@
       <c r="Q702" s="42"/>
       <c r="R702" s="43"/>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A703" s="29"/>
       <c r="B703" s="30"/>
       <c r="C703" s="31"/>
@@ -15431,7 +14383,7 @@
       <c r="Q703" s="42"/>
       <c r="R703" s="43"/>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A704" s="29"/>
       <c r="B704" s="55"/>
       <c r="C704" s="56"/>
@@ -15451,7 +14403,7 @@
       <c r="Q704" s="63"/>
       <c r="R704" s="64"/>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A705" s="29"/>
       <c r="B705" s="65"/>
       <c r="C705" s="66"/>
@@ -15465,16 +14417,16 @@
       <c r="K705" s="71"/>
       <c r="L705" s="71"/>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B707" s="72"/>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B708" s="72"/>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B709" s="72"/>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
@@ -15493,7 +14445,7 @@
       <c r="Q710" s="5"/>
       <c r="R710" s="5"/>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A711" s="6"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -15513,7 +14465,7 @@
       <c r="Q711" s="5"/>
       <c r="R711" s="5"/>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
@@ -15532,7 +14484,7 @@
       <c r="Q712" s="5"/>
       <c r="R712" s="5"/>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
@@ -15551,7 +14503,7 @@
       <c r="Q713" s="5"/>
       <c r="R713" s="5"/>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
@@ -15570,7 +14522,7 @@
       <c r="Q714" s="5"/>
       <c r="R714" s="5"/>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
@@ -15589,7 +14541,7 @@
       <c r="Q715" s="5"/>
       <c r="R715" s="5"/>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
@@ -15608,7 +14560,7 @@
       <c r="Q716" s="5"/>
       <c r="R716" s="5"/>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
@@ -15627,7 +14579,7 @@
       <c r="Q717" s="5"/>
       <c r="R717" s="5"/>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
@@ -15646,7 +14598,7 @@
       <c r="Q718" s="5"/>
       <c r="R718" s="5"/>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
@@ -15665,12 +14617,12 @@
       <c r="Q719" s="5"/>
       <c r="R719" s="5"/>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
     </row>
-    <row ht="15.75" r="723" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15" r="723" spans="1:18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A723" s="6"/>
       <c r="B723" s="102"/>
       <c r="C723" s="103"/>
@@ -15690,7 +14642,7 @@
       <c r="Q723" s="108"/>
       <c r="R723" s="109"/>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A724" s="7"/>
       <c r="B724" s="8"/>
       <c r="C724" s="9"/>
@@ -15710,7 +14662,7 @@
       <c r="Q724" s="16"/>
       <c r="R724" s="17"/>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A725" s="18"/>
       <c r="B725" s="19"/>
       <c r="C725" s="20"/>
@@ -15730,7 +14682,7 @@
       <c r="Q725" s="27"/>
       <c r="R725" s="28"/>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A726" s="29"/>
       <c r="B726" s="30"/>
       <c r="C726" s="31"/>
@@ -15750,7 +14702,7 @@
       <c r="Q726" s="42"/>
       <c r="R726" s="43"/>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A727" s="29"/>
       <c r="B727" s="30"/>
       <c r="C727" s="31"/>
@@ -15770,7 +14722,7 @@
       <c r="Q727" s="42"/>
       <c r="R727" s="43"/>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A728" s="29"/>
       <c r="B728" s="30"/>
       <c r="C728" s="31"/>
@@ -15790,7 +14742,7 @@
       <c r="Q728" s="42"/>
       <c r="R728" s="43"/>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A729" s="29"/>
       <c r="B729" s="30"/>
       <c r="C729" s="31"/>
@@ -15810,7 +14762,7 @@
       <c r="Q729" s="42"/>
       <c r="R729" s="43"/>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A730" s="29"/>
       <c r="B730" s="30"/>
       <c r="C730" s="31"/>
@@ -15830,7 +14782,7 @@
       <c r="Q730" s="42"/>
       <c r="R730" s="43"/>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A731" s="29"/>
       <c r="B731" s="30"/>
       <c r="C731" s="31"/>
@@ -15850,7 +14802,7 @@
       <c r="Q731" s="42"/>
       <c r="R731" s="43"/>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A732" s="29"/>
       <c r="B732" s="30"/>
       <c r="C732" s="31"/>
@@ -15870,7 +14822,7 @@
       <c r="Q732" s="42"/>
       <c r="R732" s="43"/>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A733" s="44"/>
       <c r="B733" s="45"/>
       <c r="C733" s="46"/>
@@ -15890,7 +14842,7 @@
       <c r="Q733" s="53"/>
       <c r="R733" s="54"/>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A734" s="44"/>
       <c r="B734" s="45"/>
       <c r="C734" s="46"/>
@@ -15910,7 +14862,7 @@
       <c r="Q734" s="53"/>
       <c r="R734" s="54"/>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A735" s="44"/>
       <c r="B735" s="45"/>
       <c r="C735" s="46"/>
@@ -15930,7 +14882,7 @@
       <c r="Q735" s="53"/>
       <c r="R735" s="54"/>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A736" s="29"/>
       <c r="B736" s="30"/>
       <c r="C736" s="31"/>
@@ -15950,7 +14902,7 @@
       <c r="Q736" s="42"/>
       <c r="R736" s="43"/>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A737" s="29"/>
       <c r="B737" s="30"/>
       <c r="C737" s="31"/>
@@ -15970,7 +14922,7 @@
       <c r="Q737" s="42"/>
       <c r="R737" s="43"/>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A738" s="29"/>
       <c r="B738" s="30"/>
       <c r="C738" s="31"/>
@@ -15990,7 +14942,7 @@
       <c r="Q738" s="42"/>
       <c r="R738" s="43"/>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A739" s="29"/>
       <c r="B739" s="30"/>
       <c r="C739" s="31"/>
@@ -16010,7 +14962,7 @@
       <c r="Q739" s="42"/>
       <c r="R739" s="43"/>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A740" s="29"/>
       <c r="B740" s="30"/>
       <c r="C740" s="31"/>
@@ -16030,7 +14982,7 @@
       <c r="Q740" s="42"/>
       <c r="R740" s="43"/>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A741" s="29"/>
       <c r="B741" s="30"/>
       <c r="C741" s="31"/>
@@ -16050,7 +15002,7 @@
       <c r="Q741" s="42"/>
       <c r="R741" s="43"/>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A742" s="44"/>
       <c r="B742" s="45"/>
       <c r="C742" s="46"/>
@@ -16070,7 +15022,7 @@
       <c r="Q742" s="53"/>
       <c r="R742" s="54"/>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A743" s="44"/>
       <c r="B743" s="45"/>
       <c r="C743" s="46"/>
@@ -16090,7 +15042,7 @@
       <c r="Q743" s="53"/>
       <c r="R743" s="54"/>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A744" s="44"/>
       <c r="B744" s="45"/>
       <c r="C744" s="46"/>
@@ -16110,7 +15062,7 @@
       <c r="Q744" s="53"/>
       <c r="R744" s="54"/>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A745" s="29"/>
       <c r="B745" s="30"/>
       <c r="C745" s="31"/>
@@ -16130,7 +15082,7 @@
       <c r="Q745" s="42"/>
       <c r="R745" s="43"/>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A746" s="29"/>
       <c r="B746" s="30"/>
       <c r="C746" s="31"/>
@@ -16150,7 +15102,7 @@
       <c r="Q746" s="42"/>
       <c r="R746" s="43"/>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A747" s="29"/>
       <c r="B747" s="30"/>
       <c r="C747" s="31"/>
@@ -16170,7 +15122,7 @@
       <c r="Q747" s="42"/>
       <c r="R747" s="43"/>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A748" s="29"/>
       <c r="B748" s="30"/>
       <c r="C748" s="31"/>
@@ -16190,7 +15142,7 @@
       <c r="Q748" s="42"/>
       <c r="R748" s="43"/>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A749" s="29"/>
       <c r="B749" s="55"/>
       <c r="C749" s="56"/>
@@ -16210,7 +15162,7 @@
       <c r="Q749" s="63"/>
       <c r="R749" s="64"/>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A750" s="29"/>
       <c r="B750" s="65"/>
       <c r="C750" s="66"/>
@@ -16224,16 +15176,16 @@
       <c r="K750" s="71"/>
       <c r="L750" s="71"/>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B752" s="72"/>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B753" s="72"/>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B754" s="72"/>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A755"/>
       <c r="B755"/>
       <c r="C755"/>
@@ -16243,7 +15195,7 @@
       <c r="Q755"/>
       <c r="R755"/>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
       <c r="B756" s="5"/>
       <c r="C756"/>
@@ -16253,7 +15205,7 @@
       <c r="Q756"/>
       <c r="R756"/>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B757" s="5"/>
       <c r="C757"/>
       <c r="D757"/>
@@ -16262,7 +15214,7 @@
       <c r="Q757"/>
       <c r="R757"/>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B758" s="5"/>
       <c r="C758"/>
       <c r="D758"/>
@@ -16271,7 +15223,7 @@
       <c r="Q758"/>
       <c r="R758"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B759" s="5"/>
       <c r="C759"/>
       <c r="D759"/>
@@ -16280,7 +15232,7 @@
       <c r="Q759"/>
       <c r="R759"/>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B760" s="5"/>
       <c r="C760"/>
       <c r="D760"/>
@@ -16289,7 +15241,7 @@
       <c r="Q760"/>
       <c r="R760"/>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B761" s="5"/>
       <c r="C761"/>
       <c r="D761"/>
@@ -16298,7 +15250,7 @@
       <c r="Q761"/>
       <c r="R761"/>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B762" s="5"/>
       <c r="C762"/>
       <c r="D762"/>
@@ -16307,7 +15259,7 @@
       <c r="Q762"/>
       <c r="R762"/>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B763" s="5"/>
       <c r="C763"/>
       <c r="D763"/>
@@ -16316,7 +15268,7 @@
       <c r="Q763"/>
       <c r="R763"/>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B764" s="5"/>
       <c r="C764"/>
       <c r="D764"/>
